--- a/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
+++ b/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\Final\1_TORIS_MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\@Papers\SPE2022\1_TORIS_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A13BD8-23F4-4234-AD89-BCEB6A4A0E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CA2B3-1381-4287-9E3D-264CBB3C0573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,15 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,77 +695,77 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>131.13999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="H4" s="2">
-        <v>245</v>
-      </c>
-      <c r="I4" s="2">
-        <v>400</v>
-      </c>
-      <c r="J4" s="2">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>8.6</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="L4" s="3">
-        <v>34500000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2100</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>419</v>
-      </c>
-      <c r="S4" s="2">
-        <v>142</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>10</v>
-      </c>
-      <c r="V4" s="2">
-        <v>2</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.25</v>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>118</v>
+      </c>
+      <c r="I4">
+        <v>1200</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>160</v>
+      </c>
+      <c r="L4">
+        <v>23400000</v>
+      </c>
+      <c r="M4">
+        <v>172.63800000000001</v>
+      </c>
+      <c r="N4">
+        <v>1200</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2407</v>
+      </c>
+      <c r="S4">
+        <v>151</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>0.27399990000000002</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -775,49 +773,49 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1.1000000000000001</v>
       </c>
       <c r="H5">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I5">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>160</v>
+        <v>7.6</v>
       </c>
       <c r="L5">
-        <v>23400000</v>
+        <v>45173000</v>
       </c>
       <c r="M5">
-        <v>172.63800000000001</v>
+        <v>248.24600000000001</v>
       </c>
       <c r="N5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -838,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.27399990000000002</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -849,43 +847,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>7.6</v>
+        <v>56</v>
       </c>
       <c r="L6">
-        <v>45173000</v>
+        <v>500000000</v>
       </c>
       <c r="M6">
-        <v>248.24600000000001</v>
+        <v>195.23599999999999</v>
       </c>
       <c r="N6">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -894,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>2407</v>
@@ -912,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -923,43 +921,43 @@
         <v>1</v>
       </c>
       <c r="B7">
+        <v>2.3662000000000001</v>
+      </c>
+      <c r="C7">
+        <v>556</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <v>25.5</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
       <c r="G7">
-        <v>1.06</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>58</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>27.7</v>
       </c>
       <c r="K7">
-        <v>56</v>
+        <v>2.65604</v>
       </c>
       <c r="L7">
-        <v>500000000</v>
+        <v>223000000</v>
       </c>
       <c r="M7">
-        <v>195.23599999999999</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -968,28 +966,28 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2407</v>
+        <v>414</v>
       </c>
       <c r="S7">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>2</v>
       </c>
       <c r="X7">
-        <v>0.33</v>
+        <v>0.30977100000000002</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -997,46 +995,46 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.3662000000000001</v>
+        <v>63.114699999999999</v>
       </c>
       <c r="C8">
-        <v>556</v>
+        <v>23.1</v>
       </c>
       <c r="D8">
-        <v>1500</v>
+        <v>27.72</v>
       </c>
       <c r="E8">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>1.3109999999999999</v>
+        <v>1.236</v>
       </c>
       <c r="H8">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="I8">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="J8">
-        <v>27.7</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>2.65604</v>
+        <v>1.12917</v>
       </c>
       <c r="L8">
-        <v>223000000</v>
+        <v>203190000</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="N8">
-        <v>2900</v>
+        <v>1510</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1045,25 +1043,25 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="S8">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
       <c r="X8">
-        <v>0.30977100000000002</v>
+        <v>0.48871489000000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1071,58 +1069,58 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>63.114699999999999</v>
+        <v>9.6808499999999995</v>
       </c>
       <c r="C9">
-        <v>23.1</v>
+        <v>187.4</v>
       </c>
       <c r="D9">
-        <v>27.72</v>
+        <v>224.88</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>23.8</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G9">
-        <v>1.236</v>
+        <v>1.39</v>
       </c>
       <c r="H9">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="I9">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>29.7</v>
       </c>
       <c r="K9">
-        <v>1.12917</v>
+        <v>0.94981499999999996</v>
       </c>
       <c r="L9">
-        <v>203190000</v>
+        <v>144700000</v>
       </c>
       <c r="M9">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="N9">
-        <v>1510</v>
+        <v>2300</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="S9">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1137,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="X9">
-        <v>0.48871489000000001</v>
+        <v>0.35209400000000002</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1145,52 +1143,52 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>9.6808499999999995</v>
+        <v>14.239699999999999</v>
       </c>
       <c r="C10">
-        <v>187.4</v>
+        <v>309</v>
       </c>
       <c r="D10">
-        <v>224.88</v>
+        <v>370.8</v>
       </c>
       <c r="E10">
-        <v>23.8</v>
+        <v>19.5</v>
       </c>
       <c r="F10">
-        <v>36.299999999999997</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>1.39</v>
+        <v>1.506</v>
       </c>
       <c r="H10">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="I10">
-        <v>63</v>
+        <v>500</v>
       </c>
       <c r="J10">
-        <v>29.7</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.94981499999999996</v>
+        <v>0.45</v>
       </c>
       <c r="L10">
-        <v>144700000</v>
+        <v>350000000</v>
       </c>
       <c r="M10">
-        <v>372</v>
+        <v>800</v>
       </c>
       <c r="N10">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>409</v>
@@ -1211,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="X10">
-        <v>0.35209400000000002</v>
+        <v>0.446571</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1219,58 +1217,58 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>14.239699999999999</v>
+        <v>2.25</v>
       </c>
       <c r="C11">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>370.8</v>
+        <v>208</v>
       </c>
       <c r="E11">
-        <v>19.5</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>1.506</v>
+        <v>1.05</v>
       </c>
       <c r="H11">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="K11">
-        <v>0.45</v>
+        <v>2400</v>
       </c>
       <c r="L11">
-        <v>350000000</v>
+        <v>283500000</v>
       </c>
       <c r="M11">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>2800</v>
+        <v>450</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="S11">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1285,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="X11">
-        <v>0.446571</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1293,43 +1291,43 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="D12">
-        <v>208</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I12">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="J12">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L12">
-        <v>283500000</v>
+        <v>260000000</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N12">
-        <v>450</v>
+        <v>1710</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1338,28 +1336,28 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="S12">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0.1201</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1367,73 +1365,73 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="I13">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K13">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L13">
-        <v>260000000</v>
+        <v>3900000000</v>
       </c>
       <c r="M13">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1710</v>
+        <v>401.7</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="S13">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
       <c r="X13">
-        <v>0.3</v>
+        <v>0.2199999</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1441,43 +1439,43 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="H14">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="I14">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>13.5</v>
+        <v>30.4</v>
       </c>
       <c r="K14">
-        <v>4000</v>
+        <v>0.53</v>
       </c>
       <c r="L14">
-        <v>3900000000</v>
+        <v>43640000</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>750</v>
       </c>
       <c r="N14">
-        <v>401.7</v>
+        <v>4900</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1486,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="S14">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1504,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>0.2199999</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1518,40 +1516,40 @@
         <v>40</v>
       </c>
       <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>1.51</v>
+      </c>
+      <c r="H15">
+        <v>225</v>
+      </c>
+      <c r="I15">
         <v>70</v>
       </c>
-      <c r="D15">
-        <v>250</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="H15">
-        <v>265</v>
-      </c>
-      <c r="I15">
-        <v>40</v>
-      </c>
       <c r="J15">
-        <v>30.4</v>
+        <v>38.1</v>
       </c>
       <c r="K15">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>43640000</v>
+        <v>104720000</v>
       </c>
       <c r="M15">
-        <v>750</v>
+        <v>860</v>
       </c>
       <c r="N15">
-        <v>4900</v>
+        <v>3540</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1563,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="S15">
         <v>172</v>
@@ -1578,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>0.216</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1589,58 +1587,58 @@
         <v>1</v>
       </c>
       <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>185</v>
+      </c>
+      <c r="D16">
+        <v>205</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>1.05</v>
+      </c>
+      <c r="H16">
+        <v>88</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>73000000</v>
+      </c>
+      <c r="M16">
         <v>40</v>
       </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>160</v>
-      </c>
-      <c r="E16">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>1.51</v>
-      </c>
-      <c r="H16">
-        <v>225</v>
-      </c>
-      <c r="I16">
-        <v>70</v>
-      </c>
-      <c r="J16">
-        <v>38.1</v>
-      </c>
-      <c r="K16">
-        <v>0.64</v>
-      </c>
-      <c r="L16">
-        <v>104720000</v>
-      </c>
-      <c r="M16">
-        <v>860</v>
-      </c>
       <c r="N16">
-        <v>3540</v>
+        <v>400</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="S16">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1655,51 +1653,51 @@
         <v>3</v>
       </c>
       <c r="X16">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>205</v>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>22.7</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="L17">
-        <v>73000000</v>
+        <v>515700000</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>291.15100000000001</v>
       </c>
       <c r="N17">
-        <v>400</v>
+        <v>1620</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1711,72 +1709,72 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="S17">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="H18">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I18">
-        <v>78</v>
+        <v>800</v>
       </c>
       <c r="J18">
-        <v>22.7</v>
+        <v>21.8</v>
       </c>
       <c r="K18">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L18">
-        <v>515700000</v>
+        <v>34200000</v>
       </c>
       <c r="M18">
-        <v>291.15100000000001</v>
+        <v>200</v>
       </c>
       <c r="N18">
-        <v>1620</v>
+        <v>2000</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1785,25 +1783,25 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="S18">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="T18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V18">
         <v>3</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>0.36</v>
+        <v>0.17917256000000001</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -1811,46 +1809,46 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>6.9736799999999999</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D19">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="H19">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="I19">
-        <v>800</v>
+        <v>36</v>
       </c>
       <c r="J19">
-        <v>21.8</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>150</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>34200000</v>
+        <v>24200000</v>
       </c>
       <c r="M19">
-        <v>200</v>
+        <v>880</v>
       </c>
       <c r="N19">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1859,25 +1857,25 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="S19">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>0.17917256000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1885,43 +1883,43 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>6.9736799999999999</v>
+        <v>2.5</v>
       </c>
       <c r="C20">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="D20">
-        <v>298</v>
+        <v>900</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H20">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="I20">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="J20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="L20">
-        <v>24200000</v>
+        <v>160000000</v>
       </c>
       <c r="M20">
-        <v>880</v>
+        <v>370</v>
       </c>
       <c r="N20">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1930,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S20">
         <v>181</v>
@@ -1951,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <v>0.38</v>
+        <v>0.39999990000000002</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -1959,43 +1957,43 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>22.352900000000002</v>
       </c>
       <c r="C21">
-        <v>450</v>
+        <v>118</v>
       </c>
       <c r="D21">
-        <v>900</v>
+        <v>141.6</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>20.8</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="H21">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I21">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="J21">
-        <v>24</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>0.53648099999999999</v>
       </c>
       <c r="L21">
-        <v>160000000</v>
+        <v>64659000</v>
       </c>
       <c r="M21">
-        <v>370</v>
+        <v>765</v>
       </c>
       <c r="N21">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2007,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="S21">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2025,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="X21">
-        <v>0.39999990000000002</v>
+        <v>0.39666499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2033,43 +2031,43 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>22.352900000000002</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>141.6</v>
+        <v>350</v>
       </c>
       <c r="E22">
-        <v>20.8</v>
+        <v>27.5</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="H22">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I22">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="J22">
-        <v>33.799999999999997</v>
+        <v>24</v>
       </c>
       <c r="K22">
-        <v>0.53648099999999999</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L22">
-        <v>64659000</v>
+        <v>174140000</v>
       </c>
       <c r="M22">
-        <v>765</v>
+        <v>345.30099999999999</v>
       </c>
       <c r="N22">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2078,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="S22">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2096,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>0.39666499999999999</v>
+        <v>0.2375273</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2110,40 +2108,40 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D23">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="E23">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H23">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I23">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K23">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>174140000</v>
+        <v>1600000000</v>
       </c>
       <c r="M23">
-        <v>345.30099999999999</v>
+        <v>200</v>
       </c>
       <c r="N23">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2155,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="S23">
         <v>181</v>
@@ -2170,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>0.2375273</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2181,43 +2179,43 @@
         <v>1</v>
       </c>
       <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>14.5</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>1.35</v>
+      </c>
+      <c r="H24">
+        <v>220</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>700</v>
-      </c>
-      <c r="D24">
-        <v>1200</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>36</v>
-      </c>
-      <c r="G24">
-        <v>1.3</v>
-      </c>
-      <c r="H24">
-        <v>160</v>
-      </c>
-      <c r="I24">
-        <v>120</v>
-      </c>
       <c r="J24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>1600000000</v>
+        <v>625000000</v>
       </c>
       <c r="M24">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N24">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2247,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="X24">
-        <v>0.37</v>
+        <v>0.31000000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2258,40 +2256,40 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="H25">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="J25">
-        <v>33</v>
+        <v>20.3</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>200</v>
       </c>
       <c r="L25">
-        <v>625000000</v>
+        <v>23300000</v>
       </c>
       <c r="M25">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N25">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2303,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="S25">
         <v>181</v>
@@ -2321,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="X25">
-        <v>0.31000000000000011</v>
+        <v>7.9999899999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2332,43 +2330,43 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1.05</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I26">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J26">
-        <v>20.3</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>200</v>
+        <v>5.8</v>
       </c>
       <c r="L26">
-        <v>23300000</v>
+        <v>29000000</v>
       </c>
       <c r="M26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N26">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2377,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>414</v>
+        <v>905</v>
       </c>
       <c r="S26">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2389,13 +2387,13 @@
         <v>10</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>7.9999899999999999E-2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2406,13 +2404,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>35</v>
@@ -2421,25 +2419,25 @@
         <v>1.05</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I27">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L27">
-        <v>29000000</v>
+        <v>21100000</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
       <c r="N27">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2451,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="S27">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>10</v>
@@ -2469,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="X27">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2480,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2498,22 +2496,22 @@
         <v>72</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K28">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>21100000</v>
+        <v>34000000</v>
       </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2525,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="S28">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>10</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2551,43 +2549,43 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="F29">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <v>1.05</v>
       </c>
       <c r="H29">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I29">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="J29">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="L29">
-        <v>34000000</v>
+        <v>38200000</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2599,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="S29">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2614,54 +2612,54 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0.25</v>
+        <v>0.35999989999999998</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G30">
         <v>1.05</v>
       </c>
       <c r="H30">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="J30">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30">
         <v>5.8</v>
       </c>
       <c r="L30">
-        <v>38200000</v>
+        <v>198600000</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N30">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2673,25 +2671,25 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>904</v>
+        <v>1001</v>
       </c>
       <c r="S30">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>0.35999989999999998</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2702,40 +2700,40 @@
         <v>20</v>
       </c>
       <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
         <v>24</v>
       </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
       <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="G31">
+        <v>1.08</v>
+      </c>
+      <c r="H31">
+        <v>104</v>
+      </c>
+      <c r="I31">
+        <v>250</v>
+      </c>
+      <c r="J31">
         <v>27</v>
       </c>
-      <c r="G31">
-        <v>1.05</v>
-      </c>
-      <c r="H31">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>75</v>
-      </c>
-      <c r="J31">
-        <v>38</v>
-      </c>
       <c r="K31">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L31">
-        <v>198600000</v>
+        <v>46000000</v>
       </c>
       <c r="M31">
-        <v>110</v>
+        <v>270.71800000000002</v>
       </c>
       <c r="N31">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2747,99 +2745,99 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1001</v>
+        <v>1601</v>
       </c>
       <c r="S31">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0.38</v>
+        <v>0.34934789999999999</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="H32">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I32">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>46000000</v>
+        <v>32000000</v>
       </c>
       <c r="M32">
-        <v>270.71800000000002</v>
+        <v>1200</v>
       </c>
       <c r="N32">
-        <v>1200</v>
+        <v>1675</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="S32">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
         <v>3</v>
       </c>
-      <c r="U32">
-        <v>20</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
       <c r="X32">
-        <v>0.34934789999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -2847,28 +2845,28 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="H33">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J33">
         <v>39</v>
@@ -2877,43 +2875,43 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>32000000</v>
+        <v>40000000</v>
       </c>
       <c r="M33">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N33">
-        <v>1675</v>
+        <v>3650</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1611</v>
+        <v>2404</v>
       </c>
       <c r="S33">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -2921,64 +2919,64 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>46.9</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G34">
-        <v>1.39</v>
+        <v>1.298</v>
       </c>
       <c r="H34">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="I34">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="J34">
-        <v>39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="L34">
-        <v>40000000</v>
+        <v>58900000</v>
       </c>
       <c r="M34">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="N34">
-        <v>3650</v>
+        <v>4040</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>2404</v>
+        <v>2415</v>
       </c>
       <c r="S34">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -2987,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="X34">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -2995,43 +2993,43 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>46.9</v>
+        <v>47.9</v>
       </c>
       <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+      <c r="E35">
         <v>31</v>
       </c>
-      <c r="D35">
-        <v>60</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
       <c r="F35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G35">
-        <v>1.298</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="H35">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I35">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="J35">
-        <v>33.299999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="K35">
-        <v>0.72199999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="L35">
-        <v>58900000</v>
+        <v>40800000</v>
       </c>
       <c r="M35">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="N35">
-        <v>4040</v>
+        <v>4225</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3040,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>2415</v>
@@ -3061,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="X35">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3069,43 +3067,43 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G36">
-        <v>1.3480000000000001</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="H36">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I36">
-        <v>417</v>
+        <v>2600</v>
       </c>
       <c r="J36">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="K36">
-        <v>0.56299999999999994</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="L36">
-        <v>40800000</v>
+        <v>20600000</v>
       </c>
       <c r="M36">
         <v>780</v>
       </c>
       <c r="N36">
-        <v>4225</v>
+        <v>4195</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3140,61 +3138,61 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>47.4</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>108</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F37">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="G37">
-        <v>1.3560000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="H37">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="I37">
-        <v>2600</v>
+        <v>33</v>
       </c>
       <c r="J37">
-        <v>36.1</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>0.53700000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>20600000</v>
+        <v>29640000</v>
       </c>
       <c r="M37">
-        <v>780</v>
+        <v>466</v>
       </c>
       <c r="N37">
-        <v>4195</v>
+        <v>7066</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2415</v>
+        <v>2403</v>
       </c>
       <c r="S37">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3209,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="X37">
-        <v>0.45</v>
+        <v>0.30700000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3220,70 +3218,70 @@
         <v>80</v>
       </c>
       <c r="C38">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>75.599999999999994</v>
+        <v>250</v>
       </c>
       <c r="E38">
-        <v>17.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="G38">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="H38">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
         <v>33</v>
       </c>
-      <c r="J38">
-        <v>38</v>
-      </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="L38">
-        <v>29640000</v>
+        <v>52000000</v>
       </c>
       <c r="M38">
-        <v>466</v>
+        <v>250</v>
       </c>
       <c r="N38">
-        <v>7066</v>
+        <v>3300</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>2403</v>
+        <v>1702</v>
       </c>
       <c r="S38">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <v>10</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>2</v>
       </c>
       <c r="X38">
-        <v>0.30700000000000011</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3291,43 +3289,43 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="H39">
         <v>200</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K39">
         <v>1.4</v>
       </c>
       <c r="L39">
-        <v>52000000</v>
+        <v>254000000</v>
       </c>
       <c r="M39">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N39">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3354,84 +3352,84 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X39">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G40">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="H40">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>34</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>254000000</v>
+        <v>25000000</v>
       </c>
       <c r="M40">
-        <v>260</v>
+        <v>4000</v>
       </c>
       <c r="N40">
-        <v>3500</v>
+        <v>2760</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1702</v>
+        <v>107</v>
       </c>
       <c r="S40">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>10</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X40">
-        <v>0.35</v>
+        <v>0.110731</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -3442,43 +3440,43 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>35</v>
       </c>
       <c r="G41">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="H41">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J41">
-        <v>40.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L41">
-        <v>25000000</v>
+        <v>79914600</v>
       </c>
       <c r="M41">
-        <v>4000</v>
+        <v>420</v>
       </c>
       <c r="N41">
-        <v>2760</v>
+        <v>1776</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3487,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S41">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3505,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="X41">
-        <v>0.110731</v>
+        <v>0.2408826</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3513,58 +3511,58 @@
         <v>1</v>
       </c>
       <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
         <v>40</v>
       </c>
-      <c r="C42">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>80</v>
-      </c>
       <c r="E42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G42">
-        <v>1.18</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>38</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L42">
-        <v>79914600</v>
+        <v>42344000</v>
       </c>
       <c r="M42">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="N42">
-        <v>1776</v>
+        <v>1694</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="S42">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -3576,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0.2408826</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3587,58 +3585,58 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D43">
+        <v>180</v>
+      </c>
+      <c r="E43">
+        <v>14.3</v>
+      </c>
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="E43">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>41</v>
-      </c>
       <c r="G43">
-        <v>1.1830000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="H43">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>4.5999999999999996</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="L43">
-        <v>42344000</v>
+        <v>24100000</v>
       </c>
       <c r="M43">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="N43">
-        <v>1694</v>
+        <v>1767</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="S43">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -3653,229 +3651,229 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0.28999999999999998</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D44">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E44">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G44">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="H44">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>0.64800000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>24100000</v>
+        <v>44000000</v>
       </c>
       <c r="M44">
-        <v>570</v>
+        <v>1600</v>
       </c>
       <c r="N44">
-        <v>1767</v>
+        <v>3685</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="S44">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U44">
         <v>10</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G45">
-        <v>1.6</v>
+        <v>1.242</v>
       </c>
       <c r="H45">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I45">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J45">
-        <v>41</v>
+        <v>33.4</v>
       </c>
       <c r="K45">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="L45">
-        <v>44000000</v>
+        <v>35000000</v>
       </c>
       <c r="M45">
-        <v>1600</v>
+        <v>460</v>
       </c>
       <c r="N45">
-        <v>3685</v>
+        <v>2789</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="S45">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>10</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <v>2</v>
       </c>
       <c r="X45">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F46">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>106</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>44</v>
+      </c>
+      <c r="K46">
+        <v>0.36</v>
+      </c>
+      <c r="L46">
+        <v>53000000</v>
+      </c>
+      <c r="M46">
+        <v>1900</v>
+      </c>
+      <c r="N46">
+        <v>2500</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>30</v>
       </c>
-      <c r="G46">
-        <v>1.242</v>
-      </c>
-      <c r="H46">
-        <v>124</v>
-      </c>
-      <c r="I46">
-        <v>28</v>
-      </c>
-      <c r="J46">
-        <v>33.4</v>
-      </c>
-      <c r="K46">
-        <v>1.4</v>
-      </c>
-      <c r="L46">
-        <v>35000000</v>
-      </c>
-      <c r="M46">
-        <v>460</v>
-      </c>
-      <c r="N46">
-        <v>2789</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>21</v>
-      </c>
       <c r="S46">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U46">
         <v>10</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X46">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3883,43 +3881,43 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D47">
+        <v>120</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <v>5.7</v>
+      </c>
+      <c r="J47">
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <v>2.5</v>
+      </c>
+      <c r="L47">
+        <v>500000000</v>
+      </c>
+      <c r="M47">
         <v>200</v>
       </c>
-      <c r="E47">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>35</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>106</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>44</v>
-      </c>
-      <c r="K47">
-        <v>0.36</v>
-      </c>
-      <c r="L47">
-        <v>53000000</v>
-      </c>
-      <c r="M47">
-        <v>1900</v>
-      </c>
       <c r="N47">
-        <v>2500</v>
+        <v>1350</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3931,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S47">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="T47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>10</v>
@@ -3949,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="X47">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3960,40 +3958,40 @@
         <v>20</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G48">
-        <v>1.1000000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I48">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K48">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L48">
-        <v>500000000</v>
+        <v>233000000</v>
       </c>
       <c r="M48">
-        <v>200</v>
+        <v>760</v>
       </c>
       <c r="N48">
-        <v>1350</v>
+        <v>1727</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4002,13 +4000,13 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="S48">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T48">
         <v>3</v>
@@ -4023,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="X48">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4034,40 +4032,40 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H49">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K49">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>233000000</v>
+        <v>233700000</v>
       </c>
       <c r="M49">
-        <v>760</v>
+        <v>559</v>
       </c>
       <c r="N49">
-        <v>1727</v>
+        <v>1450</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4076,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>37</v>
@@ -4097,51 +4095,51 @@
         <v>3</v>
       </c>
       <c r="X49">
-        <v>0.32</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>1.3</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="H50">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>0.15</v>
       </c>
       <c r="L50">
-        <v>233700000</v>
+        <v>227000000</v>
       </c>
       <c r="M50">
-        <v>559</v>
+        <v>1990</v>
       </c>
       <c r="N50">
-        <v>1450</v>
+        <v>2715</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4153,99 +4151,99 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="S50">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U50">
         <v>10</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>0.22600000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>40</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>14.6</v>
       </c>
       <c r="F51">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G51">
-        <v>2.1269999999999998</v>
+        <v>1.637</v>
       </c>
       <c r="H51">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J51">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K51">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="L51">
-        <v>227000000</v>
+        <v>78000000</v>
       </c>
       <c r="M51">
-        <v>1990</v>
+        <v>300</v>
       </c>
       <c r="N51">
-        <v>2715</v>
+        <v>4246</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S51">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="T51">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>10</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4253,43 +4251,43 @@
         <v>2</v>
       </c>
       <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52">
         <v>40</v>
       </c>
-      <c r="C52">
-        <v>38</v>
-      </c>
-      <c r="D52">
-        <v>125</v>
-      </c>
-      <c r="E52">
-        <v>14.6</v>
-      </c>
-      <c r="F52">
-        <v>20</v>
-      </c>
       <c r="G52">
-        <v>1.637</v>
+        <v>1.2</v>
       </c>
       <c r="H52">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="I52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J52">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L52">
-        <v>78000000</v>
+        <v>26400000</v>
       </c>
       <c r="M52">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N52">
-        <v>4246</v>
+        <v>1520</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4301,25 +4299,25 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>32</v>
+        <v>2411</v>
       </c>
       <c r="S52">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
         <v>3</v>
       </c>
-      <c r="U52">
-        <v>10</v>
-      </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
       <c r="X52">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4327,43 +4325,43 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H53">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J53">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K53">
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="L53">
-        <v>26400000</v>
+        <v>463000000</v>
       </c>
       <c r="M53">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N53">
-        <v>1520</v>
+        <v>1615</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4375,75 +4373,75 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2411</v>
+        <v>37</v>
       </c>
       <c r="S53">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>10</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>3</v>
       </c>
       <c r="X53">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G54">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="H54">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I54">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J54">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K54">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="L54">
-        <v>463000000</v>
+        <v>775000000</v>
       </c>
       <c r="M54">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N54">
-        <v>1615</v>
+        <v>1800</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4467,63 +4465,63 @@
         <v>3</v>
       </c>
       <c r="X54">
-        <v>0.28000000000000003</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="H55">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="J55">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>775000000</v>
+        <v>87200000</v>
       </c>
       <c r="M55">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="N55">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S55">
         <v>231</v>
@@ -4538,54 +4536,54 @@
         <v>2</v>
       </c>
       <c r="W55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X55">
-        <v>0.215</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>40</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D56">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="H56">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="I56">
-        <v>0.5</v>
+        <v>210</v>
       </c>
       <c r="J56">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="L56">
-        <v>87200000</v>
+        <v>71640000</v>
       </c>
       <c r="M56">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N56">
-        <v>2200</v>
+        <v>3338</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4594,146 +4592,146 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="S56">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>10</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>2</v>
       </c>
       <c r="X56">
-        <v>0.22800000000000001</v>
+        <v>0.1802926</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>8.3000000000000007</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E57">
+        <v>14.1</v>
+      </c>
+      <c r="F57">
         <v>30</v>
       </c>
-      <c r="F57">
-        <v>45</v>
-      </c>
       <c r="G57">
-        <v>1.6</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="H57">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="I57">
-        <v>210</v>
+        <v>4.5</v>
       </c>
       <c r="J57">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>71640000</v>
+        <v>53000000</v>
       </c>
       <c r="M57">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="N57">
-        <v>3338</v>
+        <v>1800</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="S57">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U57">
         <v>10</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X57">
-        <v>0.1802926</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <v>14.1</v>
+        <v>32.5</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G58">
-        <v>1.3540000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H58">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I58">
-        <v>4.5</v>
+        <v>288</v>
       </c>
       <c r="J58">
-        <v>32</v>
+        <v>21.2</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L58">
-        <v>53000000</v>
+        <v>95000000</v>
       </c>
       <c r="M58">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N58">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4745,143 +4743,143 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="S58">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>10</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>3</v>
       </c>
       <c r="X58">
-        <v>0.26700000000000002</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E59">
-        <v>32.5</v>
+        <v>7.8</v>
       </c>
       <c r="F59">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G59">
-        <v>1.1000000000000001</v>
+        <v>1.387</v>
       </c>
       <c r="H59">
         <v>110</v>
       </c>
       <c r="I59">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>21.2</v>
+        <v>34</v>
       </c>
       <c r="K59">
-        <v>9.8000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L59">
-        <v>95000000</v>
+        <v>194900000</v>
       </c>
       <c r="M59">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="N59">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="S59">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U59">
         <v>10</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X59">
-        <v>0.22</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="E60">
-        <v>7.8</v>
+        <v>13.8</v>
       </c>
       <c r="F60">
-        <v>27</v>
+        <v>22.7</v>
       </c>
       <c r="G60">
-        <v>1.387</v>
+        <v>1.319</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>28.2</v>
       </c>
       <c r="J60">
         <v>34</v>
       </c>
       <c r="K60">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>194900000</v>
+        <v>58000000</v>
       </c>
       <c r="M60">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N60">
-        <v>2600</v>
+        <v>3040</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4893,69 +4891,69 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="S60">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>10</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X60">
-        <v>0.26300000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D61">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="E61">
-        <v>13.8</v>
+        <v>11.1</v>
       </c>
       <c r="F61">
-        <v>22.7</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>1.319</v>
+        <v>1.24</v>
       </c>
       <c r="H61">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I61">
-        <v>28.2</v>
+        <v>13.2</v>
       </c>
       <c r="J61">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>0.53</v>
       </c>
       <c r="L61">
-        <v>58000000</v>
+        <v>520000000</v>
       </c>
       <c r="M61">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="N61">
-        <v>3040</v>
+        <v>2915</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4967,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="S61">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -4985,51 +4983,51 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <v>0.28999999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>31</v>
+      </c>
+      <c r="G62">
+        <v>1.41</v>
+      </c>
+      <c r="H62">
+        <v>170</v>
+      </c>
+      <c r="I62">
+        <v>128</v>
+      </c>
+      <c r="J62">
         <v>40</v>
       </c>
-      <c r="C62">
-        <v>80</v>
-      </c>
-      <c r="D62">
-        <v>165</v>
-      </c>
-      <c r="E62">
-        <v>11.1</v>
-      </c>
-      <c r="F62">
-        <v>19</v>
-      </c>
-      <c r="G62">
-        <v>1.24</v>
-      </c>
-      <c r="H62">
-        <v>129</v>
-      </c>
-      <c r="I62">
-        <v>13.2</v>
-      </c>
-      <c r="J62">
-        <v>39</v>
-      </c>
       <c r="K62">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="L62">
-        <v>520000000</v>
+        <v>25653000</v>
       </c>
       <c r="M62">
-        <v>470</v>
+        <v>680</v>
       </c>
       <c r="N62">
-        <v>2915</v>
+        <v>2500</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -5038,16 +5036,16 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="R62">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="S62">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U62">
         <v>10</v>
@@ -5056,10 +5054,10 @@
         <v>1</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X62">
-        <v>0.46100000000000002</v>
+        <v>0.48999989999999999</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -5067,43 +5065,43 @@
         <v>1</v>
       </c>
       <c r="B63">
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>55</v>
+      </c>
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>1.33</v>
+      </c>
+      <c r="H63">
         <v>160</v>
       </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>12</v>
-      </c>
-      <c r="E63">
-        <v>21</v>
-      </c>
-      <c r="F63">
-        <v>31</v>
-      </c>
-      <c r="G63">
-        <v>1.41</v>
-      </c>
-      <c r="H63">
-        <v>170</v>
-      </c>
       <c r="I63">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="J63">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
-        <v>0.39</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="L63">
-        <v>25653000</v>
+        <v>29000000</v>
       </c>
       <c r="M63">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="N63">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -5112,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>10</v>
@@ -5133,51 +5131,51 @@
         <v>3</v>
       </c>
       <c r="X63">
-        <v>0.48999989999999999</v>
+        <v>0.44000000000000011</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>40</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="F64">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G64">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H64">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="I64">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K64">
-        <v>0.44400000000000001</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>29000000</v>
+        <v>91000000</v>
       </c>
       <c r="M64">
-        <v>570</v>
+        <v>450</v>
       </c>
       <c r="N64">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -5189,99 +5187,99 @@
         <v>1</v>
       </c>
       <c r="R64">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="S64">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="T64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U64">
         <v>10</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W64">
         <v>3</v>
       </c>
       <c r="X64">
-        <v>0.44000000000000011</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E65">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G65">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H65">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J65">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="L65">
-        <v>91000000</v>
+        <v>88469000</v>
       </c>
       <c r="M65">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N65">
-        <v>1650</v>
+        <v>950</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>37</v>
+        <v>1510</v>
       </c>
       <c r="S65">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U65">
         <v>10</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W65">
         <v>3</v>
       </c>
       <c r="X65">
-        <v>0.26</v>
+        <v>0.23517695</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -5289,43 +5287,43 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>48.2258</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>16.8</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>1.2</v>
       </c>
       <c r="H66">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I66">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J66">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>4.2</v>
+        <v>0.94</v>
       </c>
       <c r="L66">
-        <v>88469000</v>
+        <v>28408000</v>
       </c>
       <c r="M66">
-        <v>500</v>
+        <v>499.73500000000001</v>
       </c>
       <c r="N66">
-        <v>950</v>
+        <v>939.45646931940769</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -5337,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1510</v>
+        <v>802</v>
       </c>
       <c r="S66">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -5352,131 +5350,131 @@
         <v>1</v>
       </c>
       <c r="W66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X66">
-        <v>0.23517695</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>48.2258</v>
+        <v>2.4666700000000001</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>16.8</v>
+        <v>240</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G67">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="H67">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I67">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J67">
-        <v>47</v>
+        <v>23.7</v>
       </c>
       <c r="K67">
-        <v>0.94</v>
+        <v>60</v>
       </c>
       <c r="L67">
-        <v>28408000</v>
+        <v>30700000</v>
       </c>
       <c r="M67">
-        <v>499.73500000000001</v>
+        <v>2000</v>
       </c>
       <c r="N67">
-        <v>939.45646931940769</v>
+        <v>856.60218041510814</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="S67">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X67">
-        <v>0.33</v>
+        <v>0.17032849999999999</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>2.4666700000000001</v>
+        <v>80</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G68">
-        <v>1.01</v>
+        <v>1.038</v>
       </c>
       <c r="H68">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="I68">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="J68">
-        <v>23.7</v>
+        <v>26</v>
       </c>
       <c r="K68">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="L68">
-        <v>30700000</v>
+        <v>24940000</v>
       </c>
       <c r="M68">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="N68">
-        <v>856.60218041510814</v>
+        <v>3219</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5485,25 +5483,25 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="S68">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>0.17032849999999999</v>
+        <v>0.44747399999999998</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -5511,46 +5509,46 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="G69">
-        <v>1.038</v>
+        <v>1.04</v>
       </c>
       <c r="H69">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="I69">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J69">
-        <v>26</v>
+        <v>23.6</v>
       </c>
       <c r="K69">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="L69">
-        <v>24940000</v>
+        <v>34000000</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>436.64800000000002</v>
       </c>
       <c r="N69">
-        <v>3219</v>
+        <v>1507.7226478578821</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5559,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="S69">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -5574,54 +5572,54 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X69">
-        <v>0.44747399999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D70">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="F70">
-        <v>16.5</v>
+        <v>10.9</v>
       </c>
       <c r="G70">
-        <v>1.04</v>
+        <v>1.0351999999999999</v>
       </c>
       <c r="H70">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I70">
-        <v>28</v>
+        <v>5.9</v>
       </c>
       <c r="J70">
-        <v>23.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K70">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L70">
-        <v>34000000</v>
+        <v>107310000</v>
       </c>
       <c r="M70">
-        <v>436.64800000000002</v>
+        <v>33</v>
       </c>
       <c r="N70">
-        <v>1507.7226478578821</v>
+        <v>1650</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5633,16 +5631,16 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="S70">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -5651,54 +5649,54 @@
         <v>2</v>
       </c>
       <c r="X70">
-        <v>0.28000000000000003</v>
+        <v>0.28291899999999998</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>95</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>29</v>
+      </c>
+      <c r="G71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H71">
+        <v>232</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>35</v>
+      </c>
+      <c r="K71">
+        <v>0.94</v>
+      </c>
+      <c r="L71">
+        <v>23500000</v>
+      </c>
+      <c r="M71">
         <v>50</v>
       </c>
-      <c r="D71">
-        <v>60</v>
-      </c>
-      <c r="E71">
-        <v>13.5</v>
-      </c>
-      <c r="F71">
-        <v>10.9</v>
-      </c>
-      <c r="G71">
-        <v>1.0351999999999999</v>
-      </c>
-      <c r="H71">
-        <v>120</v>
-      </c>
-      <c r="I71">
-        <v>5.9</v>
-      </c>
-      <c r="J71">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="K71">
-        <v>77</v>
-      </c>
-      <c r="L71">
-        <v>107310000</v>
-      </c>
-      <c r="M71">
-        <v>33</v>
-      </c>
       <c r="N71">
-        <v>1650</v>
+        <v>6600</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -5707,25 +5705,25 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="S71">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>10</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
         <v>3</v>
       </c>
-      <c r="U71">
-        <v>20</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
       <c r="X71">
-        <v>0.28291899999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5733,46 +5731,46 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F72">
-        <v>29</v>
+        <v>33.5</v>
       </c>
       <c r="G72">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H72">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="J72">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K72">
-        <v>0.94</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>23500000</v>
+        <v>786000000</v>
       </c>
       <c r="M72">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N72">
-        <v>6600</v>
+        <v>1100</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5781,25 +5779,25 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="S72">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V72">
         <v>1</v>
       </c>
       <c r="W72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X72">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5807,46 +5805,46 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="E73">
-        <v>19</v>
+        <v>14.1</v>
       </c>
       <c r="F73">
-        <v>33.5</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>1.1299999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="I73">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="J73">
-        <v>37</v>
+        <v>24.6</v>
       </c>
       <c r="K73">
-        <v>3.1</v>
+        <v>12.35</v>
       </c>
       <c r="L73">
-        <v>786000000</v>
+        <v>101000000</v>
       </c>
       <c r="M73">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N73">
-        <v>1100</v>
+        <v>2230</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5855,16 +5853,16 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="S73">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="U73">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -5873,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="X73">
-        <v>0.47</v>
+        <v>0.37195630000000002</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5881,43 +5879,43 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="E74">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G74">
-        <v>1.0309999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="H74">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I74">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="J74">
-        <v>24.6</v>
+        <v>36</v>
       </c>
       <c r="K74">
-        <v>12.35</v>
+        <v>0.76</v>
       </c>
       <c r="L74">
-        <v>101000000</v>
+        <v>21400000</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>620</v>
       </c>
       <c r="N74">
-        <v>2230</v>
+        <v>1903</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -5926,19 +5924,19 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="S74">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
       <c r="U74">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V74">
         <v>1</v>
@@ -5947,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="X74">
-        <v>0.37195630000000002</v>
+        <v>0.14018720000000001</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5955,43 +5953,43 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="D75">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E75">
-        <v>19</v>
+        <v>10.3</v>
       </c>
       <c r="F75">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>1.37</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="H75">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I75">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J75">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K75">
-        <v>0.76</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L75">
-        <v>21400000</v>
+        <v>168000000</v>
       </c>
       <c r="M75">
-        <v>620</v>
+        <v>180</v>
       </c>
       <c r="N75">
-        <v>1903</v>
+        <v>2940</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -6000,19 +5998,19 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="S75">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="T75">
         <v>1</v>
       </c>
       <c r="U75">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V75">
         <v>1</v>
@@ -6021,80 +6019,6 @@
         <v>2</v>
       </c>
       <c r="X75">
-        <v>0.14018720000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>150</v>
-      </c>
-      <c r="D76">
-        <v>250</v>
-      </c>
-      <c r="E76">
-        <v>10.3</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="G76">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H76">
-        <v>165</v>
-      </c>
-      <c r="I76">
-        <v>20</v>
-      </c>
-      <c r="J76">
-        <v>34</v>
-      </c>
-      <c r="K76">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L76">
-        <v>168000000</v>
-      </c>
-      <c r="M76">
-        <v>180</v>
-      </c>
-      <c r="N76">
-        <v>2940</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>825</v>
-      </c>
-      <c r="S76">
-        <v>110</v>
-      </c>
-      <c r="T76">
-        <v>1</v>
-      </c>
-      <c r="U76">
-        <v>31</v>
-      </c>
-      <c r="V76">
-        <v>1</v>
-      </c>
-      <c r="W76">
-        <v>2</v>
-      </c>
-      <c r="X76">
         <v>0.45</v>
       </c>
     </row>

--- a/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
+++ b/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\Final\1_TORIS_MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\1_TORIS_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A13BD8-23F4-4234-AD89-BCEB6A4A0E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9FC65C-ABD1-4A10-85F6-D555F18CD0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,15 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,77 +695,77 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>131.13999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="H4" s="2">
-        <v>245</v>
-      </c>
-      <c r="I4" s="2">
-        <v>400</v>
-      </c>
-      <c r="J4" s="2">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>8.6</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="L4" s="3">
-        <v>34500000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2100</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>419</v>
-      </c>
-      <c r="S4" s="2">
-        <v>142</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>10</v>
-      </c>
-      <c r="V4" s="2">
-        <v>2</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.25</v>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>118</v>
+      </c>
+      <c r="I4">
+        <v>1200</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>160</v>
+      </c>
+      <c r="L4">
+        <v>23400000</v>
+      </c>
+      <c r="M4">
+        <v>172.63800000000001</v>
+      </c>
+      <c r="N4">
+        <v>1200</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2407</v>
+      </c>
+      <c r="S4">
+        <v>151</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>0.27399990000000002</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -775,49 +773,49 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1.1000000000000001</v>
       </c>
       <c r="H5">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I5">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>160</v>
+        <v>7.6</v>
       </c>
       <c r="L5">
-        <v>23400000</v>
+        <v>45173000</v>
       </c>
       <c r="M5">
-        <v>172.63800000000001</v>
+        <v>248.24600000000001</v>
       </c>
       <c r="N5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -838,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.27399990000000002</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -849,43 +847,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I6">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>7.6</v>
+        <v>56</v>
       </c>
       <c r="L6">
-        <v>45173000</v>
+        <v>500000000</v>
       </c>
       <c r="M6">
-        <v>248.24600000000001</v>
+        <v>195.23599999999999</v>
       </c>
       <c r="N6">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -894,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>2407</v>
@@ -912,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -923,43 +921,43 @@
         <v>1</v>
       </c>
       <c r="B7">
+        <v>2.3662000000000001</v>
+      </c>
+      <c r="C7">
+        <v>556</v>
+      </c>
+      <c r="D7">
+        <v>1500</v>
+      </c>
+      <c r="E7">
+        <v>25.5</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
       <c r="G7">
-        <v>1.06</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>58</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>27.7</v>
       </c>
       <c r="K7">
-        <v>56</v>
+        <v>2.65604</v>
       </c>
       <c r="L7">
-        <v>500000000</v>
+        <v>223000000</v>
       </c>
       <c r="M7">
-        <v>195.23599999999999</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -968,28 +966,28 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2407</v>
+        <v>414</v>
       </c>
       <c r="S7">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>2</v>
       </c>
       <c r="X7">
-        <v>0.33</v>
+        <v>0.30977100000000002</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -997,46 +995,46 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.3662000000000001</v>
+        <v>63.114699999999999</v>
       </c>
       <c r="C8">
-        <v>556</v>
+        <v>23.1</v>
       </c>
       <c r="D8">
-        <v>1500</v>
+        <v>27.72</v>
       </c>
       <c r="E8">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>1.3109999999999999</v>
+        <v>1.236</v>
       </c>
       <c r="H8">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="I8">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="J8">
-        <v>27.7</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>2.65604</v>
+        <v>1.12917</v>
       </c>
       <c r="L8">
-        <v>223000000</v>
+        <v>203190000</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="N8">
-        <v>2900</v>
+        <v>1510</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1045,25 +1043,25 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="S8">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
       <c r="X8">
-        <v>0.30977100000000002</v>
+        <v>0.48871489000000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1071,58 +1069,58 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>63.114699999999999</v>
+        <v>9.6808499999999995</v>
       </c>
       <c r="C9">
-        <v>23.1</v>
+        <v>187.4</v>
       </c>
       <c r="D9">
-        <v>27.72</v>
+        <v>224.88</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>23.8</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G9">
-        <v>1.236</v>
+        <v>1.39</v>
       </c>
       <c r="H9">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="I9">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>29.7</v>
       </c>
       <c r="K9">
-        <v>1.12917</v>
+        <v>0.94981499999999996</v>
       </c>
       <c r="L9">
-        <v>203190000</v>
+        <v>144700000</v>
       </c>
       <c r="M9">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="N9">
-        <v>1510</v>
+        <v>2300</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="S9">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1137,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="X9">
-        <v>0.48871489000000001</v>
+        <v>0.35209400000000002</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1145,52 +1143,52 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>9.6808499999999995</v>
+        <v>14.239699999999999</v>
       </c>
       <c r="C10">
-        <v>187.4</v>
+        <v>309</v>
       </c>
       <c r="D10">
-        <v>224.88</v>
+        <v>370.8</v>
       </c>
       <c r="E10">
-        <v>23.8</v>
+        <v>19.5</v>
       </c>
       <c r="F10">
-        <v>36.299999999999997</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>1.39</v>
+        <v>1.506</v>
       </c>
       <c r="H10">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="I10">
-        <v>63</v>
+        <v>500</v>
       </c>
       <c r="J10">
-        <v>29.7</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.94981499999999996</v>
+        <v>0.45</v>
       </c>
       <c r="L10">
-        <v>144700000</v>
+        <v>350000000</v>
       </c>
       <c r="M10">
-        <v>372</v>
+        <v>800</v>
       </c>
       <c r="N10">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>409</v>
@@ -1211,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="X10">
-        <v>0.35209400000000002</v>
+        <v>0.446571</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1219,58 +1217,58 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>14.239699999999999</v>
+        <v>2.25</v>
       </c>
       <c r="C11">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>370.8</v>
+        <v>208</v>
       </c>
       <c r="E11">
-        <v>19.5</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>1.506</v>
+        <v>1.05</v>
       </c>
       <c r="H11">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="K11">
-        <v>0.45</v>
+        <v>2400</v>
       </c>
       <c r="L11">
-        <v>350000000</v>
+        <v>283500000</v>
       </c>
       <c r="M11">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>2800</v>
+        <v>450</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="S11">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1285,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="X11">
-        <v>0.446571</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1293,43 +1291,43 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="D12">
-        <v>208</v>
+        <v>1000</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I12">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="J12">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L12">
-        <v>283500000</v>
+        <v>260000000</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N12">
-        <v>450</v>
+        <v>1710</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1338,28 +1336,28 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="S12">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0.1201</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1367,73 +1365,73 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="I13">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K13">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L13">
-        <v>260000000</v>
+        <v>3900000000</v>
       </c>
       <c r="M13">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1710</v>
+        <v>401.7</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="S13">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
       <c r="X13">
-        <v>0.3</v>
+        <v>0.2199999</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1441,43 +1439,43 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E14">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="H14">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="I14">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>13.5</v>
+        <v>30.4</v>
       </c>
       <c r="K14">
-        <v>4000</v>
+        <v>0.53</v>
       </c>
       <c r="L14">
-        <v>3900000000</v>
+        <v>43640000</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>750</v>
       </c>
       <c r="N14">
-        <v>401.7</v>
+        <v>4900</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1486,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="S14">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1504,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>0.2199999</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1518,40 +1516,40 @@
         <v>40</v>
       </c>
       <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>1.51</v>
+      </c>
+      <c r="H15">
+        <v>225</v>
+      </c>
+      <c r="I15">
         <v>70</v>
       </c>
-      <c r="D15">
-        <v>250</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="H15">
-        <v>265</v>
-      </c>
-      <c r="I15">
-        <v>40</v>
-      </c>
       <c r="J15">
-        <v>30.4</v>
+        <v>38.1</v>
       </c>
       <c r="K15">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>43640000</v>
+        <v>104720000</v>
       </c>
       <c r="M15">
-        <v>750</v>
+        <v>860</v>
       </c>
       <c r="N15">
-        <v>4900</v>
+        <v>3540</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1563,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="S15">
         <v>172</v>
@@ -1578,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>0.216</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1589,58 +1587,58 @@
         <v>1</v>
       </c>
       <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>185</v>
+      </c>
+      <c r="D16">
+        <v>205</v>
+      </c>
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>1.05</v>
+      </c>
+      <c r="H16">
+        <v>88</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>73000000</v>
+      </c>
+      <c r="M16">
         <v>40</v>
       </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>160</v>
-      </c>
-      <c r="E16">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>1.51</v>
-      </c>
-      <c r="H16">
-        <v>225</v>
-      </c>
-      <c r="I16">
-        <v>70</v>
-      </c>
-      <c r="J16">
-        <v>38.1</v>
-      </c>
-      <c r="K16">
-        <v>0.64</v>
-      </c>
-      <c r="L16">
-        <v>104720000</v>
-      </c>
-      <c r="M16">
-        <v>860</v>
-      </c>
       <c r="N16">
-        <v>3540</v>
+        <v>400</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="S16">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1655,51 +1653,51 @@
         <v>3</v>
       </c>
       <c r="X16">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>205</v>
+        <v>500</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>22.7</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="L17">
-        <v>73000000</v>
+        <v>515700000</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>291.15100000000001</v>
       </c>
       <c r="N17">
-        <v>400</v>
+        <v>1620</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1711,72 +1709,72 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="S17">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="H18">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I18">
-        <v>78</v>
+        <v>800</v>
       </c>
       <c r="J18">
-        <v>22.7</v>
+        <v>21.8</v>
       </c>
       <c r="K18">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L18">
-        <v>515700000</v>
+        <v>34200000</v>
       </c>
       <c r="M18">
-        <v>291.15100000000001</v>
+        <v>200</v>
       </c>
       <c r="N18">
-        <v>1620</v>
+        <v>2000</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1785,25 +1783,25 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="S18">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="T18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V18">
         <v>3</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>0.36</v>
+        <v>0.17917256000000001</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -1811,46 +1809,46 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>6.9736799999999999</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D19">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="H19">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="I19">
-        <v>800</v>
+        <v>36</v>
       </c>
       <c r="J19">
-        <v>21.8</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>150</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>34200000</v>
+        <v>24200000</v>
       </c>
       <c r="M19">
-        <v>200</v>
+        <v>880</v>
       </c>
       <c r="N19">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1859,25 +1857,25 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="S19">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>0.17917256000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1885,43 +1883,43 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>6.9736799999999999</v>
+        <v>2.5</v>
       </c>
       <c r="C20">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="D20">
-        <v>298</v>
+        <v>900</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="H20">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="I20">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="J20">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="L20">
-        <v>24200000</v>
+        <v>160000000</v>
       </c>
       <c r="M20">
-        <v>880</v>
+        <v>370</v>
       </c>
       <c r="N20">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1930,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S20">
         <v>181</v>
@@ -1951,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <v>0.38</v>
+        <v>0.39999990000000002</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -1959,43 +1957,43 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>22.352900000000002</v>
       </c>
       <c r="C21">
-        <v>450</v>
+        <v>118</v>
       </c>
       <c r="D21">
-        <v>900</v>
+        <v>141.6</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>20.8</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="H21">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I21">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="J21">
-        <v>24</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>0.53648099999999999</v>
       </c>
       <c r="L21">
-        <v>160000000</v>
+        <v>64659000</v>
       </c>
       <c r="M21">
-        <v>370</v>
+        <v>765</v>
       </c>
       <c r="N21">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2007,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="S21">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2025,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="X21">
-        <v>0.39999990000000002</v>
+        <v>0.39666499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2033,43 +2031,43 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>22.352900000000002</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>141.6</v>
+        <v>350</v>
       </c>
       <c r="E22">
-        <v>20.8</v>
+        <v>27.5</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="H22">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I22">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="J22">
-        <v>33.799999999999997</v>
+        <v>24</v>
       </c>
       <c r="K22">
-        <v>0.53648099999999999</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L22">
-        <v>64659000</v>
+        <v>174140000</v>
       </c>
       <c r="M22">
-        <v>765</v>
+        <v>345.30099999999999</v>
       </c>
       <c r="N22">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2078,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="S22">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2096,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>0.39666499999999999</v>
+        <v>0.2375273</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2110,40 +2108,40 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D23">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="E23">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H23">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I23">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K23">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>174140000</v>
+        <v>1600000000</v>
       </c>
       <c r="M23">
-        <v>345.30099999999999</v>
+        <v>200</v>
       </c>
       <c r="N23">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2155,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="S23">
         <v>181</v>
@@ -2170,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>0.2375273</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2181,43 +2179,43 @@
         <v>1</v>
       </c>
       <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>14.5</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>1.35</v>
+      </c>
+      <c r="H24">
+        <v>220</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>700</v>
-      </c>
-      <c r="D24">
-        <v>1200</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>36</v>
-      </c>
-      <c r="G24">
-        <v>1.3</v>
-      </c>
-      <c r="H24">
-        <v>160</v>
-      </c>
-      <c r="I24">
-        <v>120</v>
-      </c>
       <c r="J24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>1600000000</v>
+        <v>625000000</v>
       </c>
       <c r="M24">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N24">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2247,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="X24">
-        <v>0.37</v>
+        <v>0.31000000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2258,40 +2256,40 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="H25">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="J25">
-        <v>33</v>
+        <v>20.3</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>200</v>
       </c>
       <c r="L25">
-        <v>625000000</v>
+        <v>23300000</v>
       </c>
       <c r="M25">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="N25">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2303,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="S25">
         <v>181</v>
@@ -2321,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="X25">
-        <v>0.31000000000000011</v>
+        <v>7.9999899999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2332,43 +2330,43 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1.05</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I26">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="J26">
-        <v>20.3</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>200</v>
+        <v>5.8</v>
       </c>
       <c r="L26">
-        <v>23300000</v>
+        <v>29000000</v>
       </c>
       <c r="M26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N26">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2377,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>414</v>
+        <v>905</v>
       </c>
       <c r="S26">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2389,13 +2387,13 @@
         <v>10</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>7.9999899999999999E-2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2406,13 +2404,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>35</v>
@@ -2421,25 +2419,25 @@
         <v>1.05</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I27">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L27">
-        <v>29000000</v>
+        <v>21100000</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
       <c r="N27">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2451,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="S27">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>10</v>
@@ -2469,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="X27">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2480,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2498,22 +2496,22 @@
         <v>72</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K28">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>21100000</v>
+        <v>34000000</v>
       </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2525,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="S28">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>10</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2551,43 +2549,43 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="F29">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <v>1.05</v>
       </c>
       <c r="H29">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I29">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="J29">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="L29">
-        <v>34000000</v>
+        <v>38200000</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2599,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="S29">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2614,54 +2612,54 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0.25</v>
+        <v>0.35999989999999998</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G30">
         <v>1.05</v>
       </c>
       <c r="H30">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="J30">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30">
         <v>5.8</v>
       </c>
       <c r="L30">
-        <v>38200000</v>
+        <v>198600000</v>
       </c>
       <c r="M30">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N30">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2673,25 +2671,25 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>904</v>
+        <v>1001</v>
       </c>
       <c r="S30">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>0.35999989999999998</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2702,40 +2700,40 @@
         <v>20</v>
       </c>
       <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
         <v>24</v>
       </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
       <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="G31">
+        <v>1.08</v>
+      </c>
+      <c r="H31">
+        <v>104</v>
+      </c>
+      <c r="I31">
+        <v>250</v>
+      </c>
+      <c r="J31">
         <v>27</v>
       </c>
-      <c r="G31">
-        <v>1.05</v>
-      </c>
-      <c r="H31">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>75</v>
-      </c>
-      <c r="J31">
-        <v>38</v>
-      </c>
       <c r="K31">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L31">
-        <v>198600000</v>
+        <v>46000000</v>
       </c>
       <c r="M31">
-        <v>110</v>
+        <v>270.71800000000002</v>
       </c>
       <c r="N31">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2747,99 +2745,99 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1001</v>
+        <v>1601</v>
       </c>
       <c r="S31">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0.38</v>
+        <v>0.34934789999999999</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="H32">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I32">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>46000000</v>
+        <v>32000000</v>
       </c>
       <c r="M32">
-        <v>270.71800000000002</v>
+        <v>1200</v>
       </c>
       <c r="N32">
-        <v>1200</v>
+        <v>1675</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="S32">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
         <v>3</v>
       </c>
-      <c r="U32">
-        <v>20</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
       <c r="X32">
-        <v>0.34934789999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -2847,28 +2845,28 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="H33">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="J33">
         <v>39</v>
@@ -2877,43 +2875,43 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>32000000</v>
+        <v>40000000</v>
       </c>
       <c r="M33">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N33">
-        <v>1675</v>
+        <v>3650</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1611</v>
+        <v>2404</v>
       </c>
       <c r="S33">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -2921,64 +2919,64 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>46.9</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G34">
-        <v>1.39</v>
+        <v>1.298</v>
       </c>
       <c r="H34">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="I34">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="J34">
-        <v>39</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="L34">
-        <v>40000000</v>
+        <v>58900000</v>
       </c>
       <c r="M34">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="N34">
-        <v>3650</v>
+        <v>4040</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>2404</v>
+        <v>2415</v>
       </c>
       <c r="S34">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -2987,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="X34">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -2995,43 +2993,43 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>46.9</v>
+        <v>47.9</v>
       </c>
       <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+      <c r="E35">
         <v>31</v>
       </c>
-      <c r="D35">
-        <v>60</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
       <c r="F35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G35">
-        <v>1.298</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="H35">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I35">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="J35">
-        <v>33.299999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="K35">
-        <v>0.72199999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="L35">
-        <v>58900000</v>
+        <v>40800000</v>
       </c>
       <c r="M35">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="N35">
-        <v>4040</v>
+        <v>4225</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3040,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>2415</v>
@@ -3061,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="X35">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3069,43 +3067,43 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G36">
-        <v>1.3480000000000001</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="H36">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I36">
-        <v>417</v>
+        <v>2600</v>
       </c>
       <c r="J36">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="K36">
-        <v>0.56299999999999994</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="L36">
-        <v>40800000</v>
+        <v>20600000</v>
       </c>
       <c r="M36">
         <v>780</v>
       </c>
       <c r="N36">
-        <v>4225</v>
+        <v>4195</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3140,61 +3138,61 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>47.4</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>108</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F37">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="G37">
-        <v>1.3560000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="H37">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="I37">
-        <v>2600</v>
+        <v>33</v>
       </c>
       <c r="J37">
-        <v>36.1</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>0.53700000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="L37">
-        <v>20600000</v>
+        <v>29640000</v>
       </c>
       <c r="M37">
-        <v>780</v>
+        <v>466</v>
       </c>
       <c r="N37">
-        <v>4195</v>
+        <v>7066</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2415</v>
+        <v>2403</v>
       </c>
       <c r="S37">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3209,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="X37">
-        <v>0.45</v>
+        <v>0.30700000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3220,70 +3218,70 @@
         <v>80</v>
       </c>
       <c r="C38">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>75.599999999999994</v>
+        <v>250</v>
       </c>
       <c r="E38">
-        <v>17.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="G38">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="H38">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
         <v>33</v>
       </c>
-      <c r="J38">
-        <v>38</v>
-      </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="L38">
-        <v>29640000</v>
+        <v>52000000</v>
       </c>
       <c r="M38">
-        <v>466</v>
+        <v>250</v>
       </c>
       <c r="N38">
-        <v>7066</v>
+        <v>3300</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>2403</v>
+        <v>1702</v>
       </c>
       <c r="S38">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U38">
         <v>10</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>2</v>
       </c>
       <c r="X38">
-        <v>0.30700000000000011</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3291,43 +3289,43 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="H39">
         <v>200</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K39">
         <v>1.4</v>
       </c>
       <c r="L39">
-        <v>52000000</v>
+        <v>254000000</v>
       </c>
       <c r="M39">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N39">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3354,84 +3352,84 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X39">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G40">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="H40">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>34</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>254000000</v>
+        <v>25000000</v>
       </c>
       <c r="M40">
-        <v>260</v>
+        <v>4000</v>
       </c>
       <c r="N40">
-        <v>3500</v>
+        <v>2760</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1702</v>
+        <v>107</v>
       </c>
       <c r="S40">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>10</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X40">
-        <v>0.35</v>
+        <v>0.110731</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -3442,43 +3440,43 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>35</v>
       </c>
       <c r="G41">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="H41">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J41">
-        <v>40.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L41">
-        <v>25000000</v>
+        <v>79914600</v>
       </c>
       <c r="M41">
-        <v>4000</v>
+        <v>420</v>
       </c>
       <c r="N41">
-        <v>2760</v>
+        <v>1776</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3487,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S41">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3505,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="X41">
-        <v>0.110731</v>
+        <v>0.2408826</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3513,58 +3511,58 @@
         <v>1</v>
       </c>
       <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
         <v>40</v>
       </c>
-      <c r="C42">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>80</v>
-      </c>
       <c r="E42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G42">
-        <v>1.18</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>38</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L42">
-        <v>79914600</v>
+        <v>42344000</v>
       </c>
       <c r="M42">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="N42">
-        <v>1776</v>
+        <v>1694</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="S42">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -3576,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0.2408826</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3587,58 +3585,58 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D43">
+        <v>180</v>
+      </c>
+      <c r="E43">
+        <v>14.3</v>
+      </c>
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="E43">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>41</v>
-      </c>
       <c r="G43">
-        <v>1.1830000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="H43">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>4.5999999999999996</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="L43">
-        <v>42344000</v>
+        <v>24100000</v>
       </c>
       <c r="M43">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="N43">
-        <v>1694</v>
+        <v>1767</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="S43">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -3653,229 +3651,229 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0.28999999999999998</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D44">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E44">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G44">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="H44">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>0.64800000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>24100000</v>
+        <v>44000000</v>
       </c>
       <c r="M44">
-        <v>570</v>
+        <v>1600</v>
       </c>
       <c r="N44">
-        <v>1767</v>
+        <v>3685</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="S44">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U44">
         <v>10</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G45">
-        <v>1.6</v>
+        <v>1.242</v>
       </c>
       <c r="H45">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I45">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J45">
-        <v>41</v>
+        <v>33.4</v>
       </c>
       <c r="K45">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="L45">
-        <v>44000000</v>
+        <v>35000000</v>
       </c>
       <c r="M45">
-        <v>1600</v>
+        <v>460</v>
       </c>
       <c r="N45">
-        <v>3685</v>
+        <v>2789</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="S45">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>10</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <v>2</v>
       </c>
       <c r="X45">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F46">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>106</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>44</v>
+      </c>
+      <c r="K46">
+        <v>0.36</v>
+      </c>
+      <c r="L46">
+        <v>53000000</v>
+      </c>
+      <c r="M46">
+        <v>1900</v>
+      </c>
+      <c r="N46">
+        <v>2500</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>30</v>
       </c>
-      <c r="G46">
-        <v>1.242</v>
-      </c>
-      <c r="H46">
-        <v>124</v>
-      </c>
-      <c r="I46">
-        <v>28</v>
-      </c>
-      <c r="J46">
-        <v>33.4</v>
-      </c>
-      <c r="K46">
-        <v>1.4</v>
-      </c>
-      <c r="L46">
-        <v>35000000</v>
-      </c>
-      <c r="M46">
-        <v>460</v>
-      </c>
-      <c r="N46">
-        <v>2789</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>21</v>
-      </c>
       <c r="S46">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U46">
         <v>10</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X46">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3883,43 +3881,43 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D47">
+        <v>120</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H47">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <v>5.7</v>
+      </c>
+      <c r="J47">
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <v>2.5</v>
+      </c>
+      <c r="L47">
+        <v>500000000</v>
+      </c>
+      <c r="M47">
         <v>200</v>
       </c>
-      <c r="E47">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>35</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>106</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47">
-        <v>44</v>
-      </c>
-      <c r="K47">
-        <v>0.36</v>
-      </c>
-      <c r="L47">
-        <v>53000000</v>
-      </c>
-      <c r="M47">
-        <v>1900</v>
-      </c>
       <c r="N47">
-        <v>2500</v>
+        <v>1350</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3931,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S47">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="T47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>10</v>
@@ -3949,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="X47">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3960,40 +3958,40 @@
         <v>20</v>
       </c>
       <c r="C48">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G48">
-        <v>1.1000000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I48">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K48">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L48">
-        <v>500000000</v>
+        <v>233000000</v>
       </c>
       <c r="M48">
-        <v>200</v>
+        <v>760</v>
       </c>
       <c r="N48">
-        <v>1350</v>
+        <v>1727</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4002,13 +4000,13 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="S48">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T48">
         <v>3</v>
@@ -4023,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="X48">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4034,40 +4032,40 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H49">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K49">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>233000000</v>
+        <v>233700000</v>
       </c>
       <c r="M49">
-        <v>760</v>
+        <v>559</v>
       </c>
       <c r="N49">
-        <v>1727</v>
+        <v>1450</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4076,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>37</v>
@@ -4097,51 +4095,51 @@
         <v>3</v>
       </c>
       <c r="X49">
-        <v>0.32</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G50">
-        <v>1.3</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="H50">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>0.15</v>
       </c>
       <c r="L50">
-        <v>233700000</v>
+        <v>227000000</v>
       </c>
       <c r="M50">
-        <v>559</v>
+        <v>1990</v>
       </c>
       <c r="N50">
-        <v>1450</v>
+        <v>2715</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4153,99 +4151,99 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="S50">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U50">
         <v>10</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>0.22600000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>40</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>14.6</v>
       </c>
       <c r="F51">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G51">
-        <v>2.1269999999999998</v>
+        <v>1.637</v>
       </c>
       <c r="H51">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J51">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K51">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="L51">
-        <v>227000000</v>
+        <v>78000000</v>
       </c>
       <c r="M51">
-        <v>1990</v>
+        <v>300</v>
       </c>
       <c r="N51">
-        <v>2715</v>
+        <v>4246</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S51">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="T51">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>10</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4253,43 +4251,43 @@
         <v>2</v>
       </c>
       <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52">
         <v>40</v>
       </c>
-      <c r="C52">
-        <v>38</v>
-      </c>
-      <c r="D52">
-        <v>125</v>
-      </c>
-      <c r="E52">
-        <v>14.6</v>
-      </c>
-      <c r="F52">
-        <v>20</v>
-      </c>
       <c r="G52">
-        <v>1.637</v>
+        <v>1.2</v>
       </c>
       <c r="H52">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="I52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J52">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K52">
-        <v>0.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L52">
-        <v>78000000</v>
+        <v>26400000</v>
       </c>
       <c r="M52">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N52">
-        <v>4246</v>
+        <v>1520</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4301,25 +4299,25 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>32</v>
+        <v>2411</v>
       </c>
       <c r="S52">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
         <v>3</v>
       </c>
-      <c r="U52">
-        <v>10</v>
-      </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
       <c r="X52">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4327,43 +4325,43 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H53">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J53">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K53">
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="L53">
-        <v>26400000</v>
+        <v>463000000</v>
       </c>
       <c r="M53">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N53">
-        <v>1520</v>
+        <v>1615</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4375,75 +4373,75 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2411</v>
+        <v>37</v>
       </c>
       <c r="S53">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>10</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>3</v>
       </c>
       <c r="X53">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G54">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="H54">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I54">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J54">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K54">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="L54">
-        <v>463000000</v>
+        <v>775000000</v>
       </c>
       <c r="M54">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N54">
-        <v>1615</v>
+        <v>1800</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4467,63 +4465,63 @@
         <v>3</v>
       </c>
       <c r="X54">
-        <v>0.28000000000000003</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="H55">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="J55">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>775000000</v>
+        <v>87200000</v>
       </c>
       <c r="M55">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="N55">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S55">
         <v>231</v>
@@ -4538,54 +4536,54 @@
         <v>2</v>
       </c>
       <c r="W55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X55">
-        <v>0.215</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>40</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D56">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="H56">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="I56">
-        <v>0.5</v>
+        <v>210</v>
       </c>
       <c r="J56">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="L56">
-        <v>87200000</v>
+        <v>71640000</v>
       </c>
       <c r="M56">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N56">
-        <v>2200</v>
+        <v>3338</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4594,146 +4592,146 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="S56">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>10</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>2</v>
       </c>
       <c r="X56">
-        <v>0.22800000000000001</v>
+        <v>0.1802926</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>8.3000000000000007</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E57">
+        <v>14.1</v>
+      </c>
+      <c r="F57">
         <v>30</v>
       </c>
-      <c r="F57">
-        <v>45</v>
-      </c>
       <c r="G57">
-        <v>1.6</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="H57">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="I57">
-        <v>210</v>
+        <v>4.5</v>
       </c>
       <c r="J57">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>71640000</v>
+        <v>53000000</v>
       </c>
       <c r="M57">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="N57">
-        <v>3338</v>
+        <v>1800</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="S57">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U57">
         <v>10</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X57">
-        <v>0.1802926</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <v>14.1</v>
+        <v>32.5</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G58">
-        <v>1.3540000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H58">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I58">
-        <v>4.5</v>
+        <v>288</v>
       </c>
       <c r="J58">
-        <v>32</v>
+        <v>21.2</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L58">
-        <v>53000000</v>
+        <v>95000000</v>
       </c>
       <c r="M58">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N58">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4745,143 +4743,143 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="S58">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>10</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>3</v>
       </c>
       <c r="X58">
-        <v>0.26700000000000002</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E59">
-        <v>32.5</v>
+        <v>7.8</v>
       </c>
       <c r="F59">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G59">
-        <v>1.1000000000000001</v>
+        <v>1.387</v>
       </c>
       <c r="H59">
         <v>110</v>
       </c>
       <c r="I59">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>21.2</v>
+        <v>34</v>
       </c>
       <c r="K59">
-        <v>9.8000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L59">
-        <v>95000000</v>
+        <v>194900000</v>
       </c>
       <c r="M59">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="N59">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="S59">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U59">
         <v>10</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X59">
-        <v>0.22</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="E60">
-        <v>7.8</v>
+        <v>13.8</v>
       </c>
       <c r="F60">
-        <v>27</v>
+        <v>22.7</v>
       </c>
       <c r="G60">
-        <v>1.387</v>
+        <v>1.319</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>28.2</v>
       </c>
       <c r="J60">
         <v>34</v>
       </c>
       <c r="K60">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>194900000</v>
+        <v>58000000</v>
       </c>
       <c r="M60">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N60">
-        <v>2600</v>
+        <v>3040</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4893,69 +4891,69 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="S60">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>10</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X60">
-        <v>0.26300000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D61">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="E61">
-        <v>13.8</v>
+        <v>11.1</v>
       </c>
       <c r="F61">
-        <v>22.7</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>1.319</v>
+        <v>1.24</v>
       </c>
       <c r="H61">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I61">
-        <v>28.2</v>
+        <v>13.2</v>
       </c>
       <c r="J61">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>0.53</v>
       </c>
       <c r="L61">
-        <v>58000000</v>
+        <v>520000000</v>
       </c>
       <c r="M61">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="N61">
-        <v>3040</v>
+        <v>2915</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4967,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="S61">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -4985,51 +4983,51 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <v>0.28999999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>31</v>
+      </c>
+      <c r="G62">
+        <v>1.41</v>
+      </c>
+      <c r="H62">
+        <v>170</v>
+      </c>
+      <c r="I62">
+        <v>128</v>
+      </c>
+      <c r="J62">
         <v>40</v>
       </c>
-      <c r="C62">
-        <v>80</v>
-      </c>
-      <c r="D62">
-        <v>165</v>
-      </c>
-      <c r="E62">
-        <v>11.1</v>
-      </c>
-      <c r="F62">
-        <v>19</v>
-      </c>
-      <c r="G62">
-        <v>1.24</v>
-      </c>
-      <c r="H62">
-        <v>129</v>
-      </c>
-      <c r="I62">
-        <v>13.2</v>
-      </c>
-      <c r="J62">
-        <v>39</v>
-      </c>
       <c r="K62">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="L62">
-        <v>520000000</v>
+        <v>25653000</v>
       </c>
       <c r="M62">
-        <v>470</v>
+        <v>680</v>
       </c>
       <c r="N62">
-        <v>2915</v>
+        <v>2500</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -5038,16 +5036,16 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="R62">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="S62">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U62">
         <v>10</v>
@@ -5056,10 +5054,10 @@
         <v>1</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X62">
-        <v>0.46100000000000002</v>
+        <v>0.48999989999999999</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -5067,43 +5065,43 @@
         <v>1</v>
       </c>
       <c r="B63">
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>55</v>
+      </c>
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>1.33</v>
+      </c>
+      <c r="H63">
         <v>160</v>
       </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>12</v>
-      </c>
-      <c r="E63">
-        <v>21</v>
-      </c>
-      <c r="F63">
-        <v>31</v>
-      </c>
-      <c r="G63">
-        <v>1.41</v>
-      </c>
-      <c r="H63">
-        <v>170</v>
-      </c>
       <c r="I63">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="J63">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
-        <v>0.39</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="L63">
-        <v>25653000</v>
+        <v>29000000</v>
       </c>
       <c r="M63">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="N63">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -5112,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="R63">
         <v>10</v>
@@ -5133,51 +5131,51 @@
         <v>3</v>
       </c>
       <c r="X63">
-        <v>0.48999989999999999</v>
+        <v>0.44000000000000011</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>40</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="F64">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G64">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H64">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="I64">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K64">
-        <v>0.44400000000000001</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>29000000</v>
+        <v>91000000</v>
       </c>
       <c r="M64">
-        <v>570</v>
+        <v>450</v>
       </c>
       <c r="N64">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -5189,99 +5187,99 @@
         <v>1</v>
       </c>
       <c r="R64">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="S64">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="T64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U64">
         <v>10</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W64">
         <v>3</v>
       </c>
       <c r="X64">
-        <v>0.44000000000000011</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E65">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G65">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H65">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J65">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="L65">
-        <v>91000000</v>
+        <v>88469000</v>
       </c>
       <c r="M65">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N65">
-        <v>1650</v>
+        <v>950</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>37</v>
+        <v>1510</v>
       </c>
       <c r="S65">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U65">
         <v>10</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W65">
         <v>3</v>
       </c>
       <c r="X65">
-        <v>0.26</v>
+        <v>0.23517695</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -5289,43 +5287,43 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>48.2258</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>16.8</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>1.2</v>
       </c>
       <c r="H66">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I66">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J66">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>4.2</v>
+        <v>0.94</v>
       </c>
       <c r="L66">
-        <v>88469000</v>
+        <v>28408000</v>
       </c>
       <c r="M66">
-        <v>500</v>
+        <v>499.73500000000001</v>
       </c>
       <c r="N66">
-        <v>950</v>
+        <v>939.45646931940769</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -5337,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1510</v>
+        <v>802</v>
       </c>
       <c r="S66">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -5352,131 +5350,131 @@
         <v>1</v>
       </c>
       <c r="W66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X66">
-        <v>0.23517695</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>48.2258</v>
+        <v>2.4666700000000001</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>16.8</v>
+        <v>240</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F67">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G67">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="H67">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I67">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J67">
-        <v>47</v>
+        <v>23.7</v>
       </c>
       <c r="K67">
-        <v>0.94</v>
+        <v>60</v>
       </c>
       <c r="L67">
-        <v>28408000</v>
+        <v>30700000</v>
       </c>
       <c r="M67">
-        <v>499.73500000000001</v>
+        <v>2000</v>
       </c>
       <c r="N67">
-        <v>939.45646931940769</v>
+        <v>856.60218041510814</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="S67">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X67">
-        <v>0.33</v>
+        <v>0.17032849999999999</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>2.4666700000000001</v>
+        <v>80</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G68">
-        <v>1.01</v>
+        <v>1.038</v>
       </c>
       <c r="H68">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="I68">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="J68">
-        <v>23.7</v>
+        <v>26</v>
       </c>
       <c r="K68">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="L68">
-        <v>30700000</v>
+        <v>24940000</v>
       </c>
       <c r="M68">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="N68">
-        <v>856.60218041510814</v>
+        <v>3219</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5485,25 +5483,25 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="S68">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>0.17032849999999999</v>
+        <v>0.44747399999999998</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -5511,46 +5509,46 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="G69">
-        <v>1.038</v>
+        <v>1.04</v>
       </c>
       <c r="H69">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="I69">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J69">
-        <v>26</v>
+        <v>23.6</v>
       </c>
       <c r="K69">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="L69">
-        <v>24940000</v>
+        <v>34000000</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>436.64800000000002</v>
       </c>
       <c r="N69">
-        <v>3219</v>
+        <v>1507.7226478578821</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5559,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="S69">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -5574,54 +5572,54 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X69">
-        <v>0.44747399999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D70">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="F70">
-        <v>16.5</v>
+        <v>10.9</v>
       </c>
       <c r="G70">
-        <v>1.04</v>
+        <v>1.0351999999999999</v>
       </c>
       <c r="H70">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I70">
-        <v>28</v>
+        <v>5.9</v>
       </c>
       <c r="J70">
-        <v>23.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K70">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L70">
-        <v>34000000</v>
+        <v>107310000</v>
       </c>
       <c r="M70">
-        <v>436.64800000000002</v>
+        <v>33</v>
       </c>
       <c r="N70">
-        <v>1507.7226478578821</v>
+        <v>1650</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5633,16 +5631,16 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="S70">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -5651,54 +5649,54 @@
         <v>2</v>
       </c>
       <c r="X70">
-        <v>0.28000000000000003</v>
+        <v>0.28291899999999998</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>95</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>29</v>
+      </c>
+      <c r="G71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H71">
+        <v>232</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>35</v>
+      </c>
+      <c r="K71">
+        <v>0.94</v>
+      </c>
+      <c r="L71">
+        <v>23500000</v>
+      </c>
+      <c r="M71">
         <v>50</v>
       </c>
-      <c r="D71">
-        <v>60</v>
-      </c>
-      <c r="E71">
-        <v>13.5</v>
-      </c>
-      <c r="F71">
-        <v>10.9</v>
-      </c>
-      <c r="G71">
-        <v>1.0351999999999999</v>
-      </c>
-      <c r="H71">
-        <v>120</v>
-      </c>
-      <c r="I71">
-        <v>5.9</v>
-      </c>
-      <c r="J71">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="K71">
-        <v>77</v>
-      </c>
-      <c r="L71">
-        <v>107310000</v>
-      </c>
-      <c r="M71">
-        <v>33</v>
-      </c>
       <c r="N71">
-        <v>1650</v>
+        <v>6600</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -5707,25 +5705,25 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="S71">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>10</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
         <v>3</v>
       </c>
-      <c r="U71">
-        <v>20</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>2</v>
-      </c>
       <c r="X71">
-        <v>0.28291899999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5733,46 +5731,46 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F72">
-        <v>29</v>
+        <v>33.5</v>
       </c>
       <c r="G72">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H72">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="J72">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K72">
-        <v>0.94</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>23500000</v>
+        <v>786000000</v>
       </c>
       <c r="M72">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N72">
-        <v>6600</v>
+        <v>1100</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5781,25 +5779,25 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="S72">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V72">
         <v>1</v>
       </c>
       <c r="W72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X72">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5807,46 +5805,46 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="E73">
-        <v>19</v>
+        <v>14.1</v>
       </c>
       <c r="F73">
-        <v>33.5</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>1.1299999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="I73">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="J73">
-        <v>37</v>
+        <v>24.6</v>
       </c>
       <c r="K73">
-        <v>3.1</v>
+        <v>12.35</v>
       </c>
       <c r="L73">
-        <v>786000000</v>
+        <v>101000000</v>
       </c>
       <c r="M73">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="N73">
-        <v>1100</v>
+        <v>2230</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5855,16 +5853,16 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="S73">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="U73">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -5873,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="X73">
-        <v>0.47</v>
+        <v>0.37195630000000002</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5881,43 +5879,43 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D74">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="E74">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G74">
-        <v>1.0309999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="H74">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I74">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="J74">
-        <v>24.6</v>
+        <v>36</v>
       </c>
       <c r="K74">
-        <v>12.35</v>
+        <v>0.76</v>
       </c>
       <c r="L74">
-        <v>101000000</v>
+        <v>21400000</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>620</v>
       </c>
       <c r="N74">
-        <v>2230</v>
+        <v>1903</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -5926,19 +5924,19 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="S74">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
       <c r="U74">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V74">
         <v>1</v>
@@ -5947,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="X74">
-        <v>0.37195630000000002</v>
+        <v>0.14018720000000001</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5955,43 +5953,43 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="D75">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E75">
-        <v>19</v>
+        <v>10.3</v>
       </c>
       <c r="F75">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>1.37</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="H75">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I75">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J75">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K75">
-        <v>0.76</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L75">
-        <v>21400000</v>
+        <v>168000000</v>
       </c>
       <c r="M75">
-        <v>620</v>
+        <v>180</v>
       </c>
       <c r="N75">
-        <v>1903</v>
+        <v>2940</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -6000,19 +5998,19 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="S75">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="T75">
         <v>1</v>
       </c>
       <c r="U75">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V75">
         <v>1</v>
@@ -6021,80 +6019,6 @@
         <v>2</v>
       </c>
       <c r="X75">
-        <v>0.14018720000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>150</v>
-      </c>
-      <c r="D76">
-        <v>250</v>
-      </c>
-      <c r="E76">
-        <v>10.3</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="G76">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H76">
-        <v>165</v>
-      </c>
-      <c r="I76">
-        <v>20</v>
-      </c>
-      <c r="J76">
-        <v>34</v>
-      </c>
-      <c r="K76">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L76">
-        <v>168000000</v>
-      </c>
-      <c r="M76">
-        <v>180</v>
-      </c>
-      <c r="N76">
-        <v>2940</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>825</v>
-      </c>
-      <c r="S76">
-        <v>110</v>
-      </c>
-      <c r="T76">
-        <v>1</v>
-      </c>
-      <c r="U76">
-        <v>31</v>
-      </c>
-      <c r="V76">
-        <v>1</v>
-      </c>
-      <c r="W76">
-        <v>2</v>
-      </c>
-      <c r="X76">
         <v>0.45</v>
       </c>
     </row>

--- a/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
+++ b/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\@Papers\SPE2022\1_TORIS_MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\1_TORIS_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CA2B3-1381-4287-9E3D-264CBB3C0573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9FC65C-ABD1-4A10-85F6-D555F18CD0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
+++ b/@Papers/SPE2022/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\1_TORIS_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9FC65C-ABD1-4A10-85F6-D555F18CD0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B167071-D3C3-460D-AA5A-D23B23A21E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A4" sqref="A4:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,77 +698,77 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>8.6</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>131.13999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="H4" s="2">
+        <v>245</v>
+      </c>
+      <c r="I4" s="2">
+        <v>400</v>
+      </c>
+      <c r="J4" s="2">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
         <v>30</v>
       </c>
-      <c r="F4">
-        <v>32</v>
-      </c>
-      <c r="G4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H4">
-        <v>118</v>
-      </c>
-      <c r="I4">
-        <v>1200</v>
-      </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>160</v>
-      </c>
-      <c r="L4">
-        <v>23400000</v>
-      </c>
-      <c r="M4">
-        <v>172.63800000000001</v>
-      </c>
-      <c r="N4">
-        <v>1200</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>2407</v>
-      </c>
-      <c r="S4">
-        <v>151</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>0.27399990000000002</v>
+      <c r="L4" s="3">
+        <v>34500000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2100</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>419</v>
+      </c>
+      <c r="S4" s="2">
+        <v>142</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>10</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -773,49 +776,49 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>1.1000000000000001</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>7.6</v>
+        <v>160</v>
       </c>
       <c r="L5">
-        <v>45173000</v>
+        <v>23400000</v>
       </c>
       <c r="M5">
-        <v>248.24600000000001</v>
+        <v>172.63800000000001</v>
       </c>
       <c r="N5">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -836,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0.36</v>
+        <v>0.27399990000000002</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -847,44 +850,44 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>7.6</v>
+      </c>
+      <c r="L6">
+        <v>45173000</v>
+      </c>
+      <c r="M6">
+        <v>248.24600000000001</v>
+      </c>
+      <c r="N6">
         <v>1000</v>
       </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>56</v>
-      </c>
-      <c r="L6">
-        <v>500000000</v>
-      </c>
-      <c r="M6">
-        <v>195.23599999999999</v>
-      </c>
-      <c r="N6">
-        <v>1200</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -892,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>2407</v>
@@ -910,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -921,43 +924,43 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.3662000000000001</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>556</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="E7">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>1.06</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="H7">
-        <v>190</v>
-      </c>
-      <c r="I7">
-        <v>58</v>
-      </c>
-      <c r="J7">
-        <v>27.7</v>
-      </c>
       <c r="K7">
-        <v>2.65604</v>
+        <v>56</v>
       </c>
       <c r="L7">
-        <v>223000000</v>
+        <v>500000000</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>195.23599999999999</v>
       </c>
       <c r="N7">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -966,28 +969,28 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>414</v>
+        <v>2407</v>
       </c>
       <c r="S7">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>2</v>
       </c>
       <c r="X7">
-        <v>0.30977100000000002</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -995,73 +998,73 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>63.114699999999999</v>
+        <v>2.3662000000000001</v>
       </c>
       <c r="C8">
-        <v>23.1</v>
+        <v>556</v>
       </c>
       <c r="D8">
-        <v>27.72</v>
+        <v>1500</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="H8">
+        <v>190</v>
+      </c>
+      <c r="I8">
+        <v>58</v>
+      </c>
+      <c r="J8">
+        <v>27.7</v>
+      </c>
+      <c r="K8">
+        <v>2.65604</v>
+      </c>
+      <c r="L8">
+        <v>223000000</v>
+      </c>
+      <c r="M8">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>2900</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>414</v>
+      </c>
+      <c r="S8">
+        <v>181</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>30</v>
       </c>
-      <c r="G8">
-        <v>1.236</v>
-      </c>
-      <c r="H8">
-        <v>142</v>
-      </c>
-      <c r="I8">
-        <v>250</v>
-      </c>
-      <c r="J8">
-        <v>32</v>
-      </c>
-      <c r="K8">
-        <v>1.12917</v>
-      </c>
-      <c r="L8">
-        <v>203190000</v>
-      </c>
-      <c r="M8">
-        <v>420</v>
-      </c>
-      <c r="N8">
-        <v>1510</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>404</v>
-      </c>
-      <c r="S8">
-        <v>153</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>0.48871489000000001</v>
+        <v>0.30977100000000002</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1069,58 +1072,58 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>9.6808499999999995</v>
+        <v>63.114699999999999</v>
       </c>
       <c r="C9">
-        <v>187.4</v>
+        <v>23.1</v>
       </c>
       <c r="D9">
-        <v>224.88</v>
+        <v>27.72</v>
       </c>
       <c r="E9">
-        <v>23.8</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>36.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>1.39</v>
+        <v>1.236</v>
       </c>
       <c r="H9">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="I9">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="J9">
-        <v>29.7</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.94981499999999996</v>
+        <v>1.12917</v>
       </c>
       <c r="L9">
-        <v>144700000</v>
+        <v>203190000</v>
       </c>
       <c r="M9">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="N9">
-        <v>2300</v>
+        <v>1510</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="S9">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1135,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="X9">
-        <v>0.35209400000000002</v>
+        <v>0.48871489000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1143,52 +1146,52 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>14.239699999999999</v>
+        <v>9.6808499999999995</v>
       </c>
       <c r="C10">
-        <v>309</v>
+        <v>187.4</v>
       </c>
       <c r="D10">
-        <v>370.8</v>
+        <v>224.88</v>
       </c>
       <c r="E10">
-        <v>19.5</v>
+        <v>23.8</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G10">
-        <v>1.506</v>
+        <v>1.39</v>
       </c>
       <c r="H10">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>29.7</v>
       </c>
       <c r="K10">
-        <v>0.45</v>
+        <v>0.94981499999999996</v>
       </c>
       <c r="L10">
-        <v>350000000</v>
+        <v>144700000</v>
       </c>
       <c r="M10">
-        <v>800</v>
+        <v>372</v>
       </c>
       <c r="N10">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>409</v>
@@ -1209,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="X10">
-        <v>0.446571</v>
+        <v>0.35209400000000002</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1217,58 +1220,58 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>2.25</v>
+        <v>14.239699999999999</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="D11">
-        <v>208</v>
+        <v>370.8</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>19.5</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>1.05</v>
+        <v>1.506</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="I11">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="J11">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>2400</v>
+        <v>0.45</v>
       </c>
       <c r="L11">
-        <v>283500000</v>
+        <v>350000000</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="N11">
-        <v>450</v>
+        <v>2800</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="S11">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="X11">
-        <v>0.1201</v>
+        <v>0.446571</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1291,43 +1294,43 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>208</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="H12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="K12">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L12">
-        <v>260000000</v>
+        <v>283500000</v>
       </c>
       <c r="M12">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N12">
-        <v>1710</v>
+        <v>450</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1336,28 +1339,28 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="S12">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="T12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>3</v>
       </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
       <c r="X12">
-        <v>0.3</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1365,73 +1368,73 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="D13">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H13">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I13">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="J13">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K13">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L13">
-        <v>3900000000</v>
+        <v>260000000</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N13">
-        <v>401.7</v>
+        <v>1710</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="S13">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>0.2199999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1439,43 +1442,43 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>1.4590000000000001</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="I14">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="J14">
-        <v>30.4</v>
+        <v>13.5</v>
       </c>
       <c r="K14">
-        <v>0.53</v>
+        <v>4000</v>
       </c>
       <c r="L14">
-        <v>43640000</v>
+        <v>3900000000</v>
       </c>
       <c r="M14">
-        <v>750</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>4900</v>
+        <v>401.7</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1484,13 +1487,13 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="S14">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1502,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>0.216</v>
+        <v>0.2199999</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1516,40 +1519,40 @@
         <v>40</v>
       </c>
       <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="H15">
+        <v>265</v>
+      </c>
+      <c r="I15">
         <v>40</v>
       </c>
-      <c r="D15">
-        <v>160</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>1.51</v>
-      </c>
-      <c r="H15">
-        <v>225</v>
-      </c>
-      <c r="I15">
-        <v>70</v>
-      </c>
       <c r="J15">
-        <v>38.1</v>
+        <v>30.4</v>
       </c>
       <c r="K15">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="L15">
-        <v>104720000</v>
+        <v>43640000</v>
       </c>
       <c r="M15">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="N15">
-        <v>3540</v>
+        <v>4900</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1561,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="S15">
         <v>172</v>
@@ -1576,10 +1579,10 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>0.25</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1587,58 +1590,58 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
         <v>34</v>
       </c>
-      <c r="F16">
-        <v>29</v>
-      </c>
       <c r="G16">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="I16">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>38.1</v>
       </c>
       <c r="K16">
-        <v>1000</v>
+        <v>0.64</v>
       </c>
       <c r="L16">
-        <v>73000000</v>
+        <v>104720000</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="N16">
-        <v>400</v>
+        <v>3540</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="S16">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1653,51 +1656,51 @@
         <v>3</v>
       </c>
       <c r="X16">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D17">
+        <v>205</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>1.05</v>
+      </c>
+      <c r="H17">
+        <v>88</v>
+      </c>
+      <c r="I17">
         <v>500</v>
       </c>
-      <c r="E17">
-        <v>33</v>
-      </c>
-      <c r="F17">
-        <v>37</v>
-      </c>
-      <c r="G17">
-        <v>1.2</v>
-      </c>
-      <c r="H17">
-        <v>145</v>
-      </c>
-      <c r="I17">
-        <v>78</v>
-      </c>
       <c r="J17">
-        <v>22.7</v>
+        <v>14</v>
       </c>
       <c r="K17">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="L17">
-        <v>515700000</v>
+        <v>73000000</v>
       </c>
       <c r="M17">
-        <v>291.15100000000001</v>
+        <v>40</v>
       </c>
       <c r="N17">
-        <v>1620</v>
+        <v>400</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1709,72 +1712,72 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="S17">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
         <v>3</v>
       </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
       <c r="X17">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G18">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="H18">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="I18">
-        <v>800</v>
+        <v>78</v>
       </c>
       <c r="J18">
-        <v>21.8</v>
+        <v>22.7</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="L18">
-        <v>34200000</v>
+        <v>515700000</v>
       </c>
       <c r="M18">
-        <v>200</v>
+        <v>291.15100000000001</v>
       </c>
       <c r="N18">
-        <v>2000</v>
+        <v>1620</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1783,25 +1786,25 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="S18">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U18">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="V18">
         <v>3</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>0.17917256000000001</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -1809,73 +1812,73 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>6.9736799999999999</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="H19">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="I19">
-        <v>36</v>
+        <v>800</v>
       </c>
       <c r="J19">
+        <v>21.8</v>
+      </c>
+      <c r="K19">
+        <v>150</v>
+      </c>
+      <c r="L19">
+        <v>34200000</v>
+      </c>
+      <c r="M19">
+        <v>200</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>401</v>
+      </c>
+      <c r="S19">
+        <v>131</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
         <v>31</v>
       </c>
-      <c r="K19">
-        <v>0.8</v>
-      </c>
-      <c r="L19">
-        <v>24200000</v>
-      </c>
-      <c r="M19">
-        <v>880</v>
-      </c>
-      <c r="N19">
-        <v>5000</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>418</v>
-      </c>
-      <c r="S19">
-        <v>181</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>10</v>
-      </c>
       <c r="V19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19">
-        <v>0.38</v>
+        <v>0.17917256000000001</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -1883,43 +1886,43 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>2.5</v>
+        <v>6.9736799999999999</v>
       </c>
       <c r="C20">
-        <v>450</v>
+        <v>173</v>
       </c>
       <c r="D20">
-        <v>900</v>
+        <v>298</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="I20">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="J20">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>160000000</v>
+        <v>24200000</v>
       </c>
       <c r="M20">
-        <v>370</v>
+        <v>880</v>
       </c>
       <c r="N20">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1928,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="S20">
         <v>181</v>
@@ -1949,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="X20">
-        <v>0.39999990000000002</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -1957,43 +1960,43 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>22.352900000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C21">
-        <v>118</v>
+        <v>450</v>
       </c>
       <c r="D21">
-        <v>141.6</v>
+        <v>900</v>
       </c>
       <c r="E21">
-        <v>20.8</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="H21">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I21">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="J21">
-        <v>33.799999999999997</v>
+        <v>24</v>
       </c>
       <c r="K21">
-        <v>0.53648099999999999</v>
+        <v>12</v>
       </c>
       <c r="L21">
-        <v>64659000</v>
+        <v>160000000</v>
       </c>
       <c r="M21">
-        <v>765</v>
+        <v>370</v>
       </c>
       <c r="N21">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2005,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S21">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2023,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="X21">
-        <v>0.39666499999999999</v>
+        <v>0.39999990000000002</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2031,43 +2034,43 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>22.352900000000002</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D22">
-        <v>350</v>
+        <v>141.6</v>
       </c>
       <c r="E22">
-        <v>27.5</v>
+        <v>20.8</v>
       </c>
       <c r="F22">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="H22">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I22">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="K22">
-        <v>4.5999999999999996</v>
+        <v>0.53648099999999999</v>
       </c>
       <c r="L22">
-        <v>174140000</v>
+        <v>64659000</v>
       </c>
       <c r="M22">
-        <v>345.30099999999999</v>
+        <v>765</v>
       </c>
       <c r="N22">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2076,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="S22">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2094,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>0.2375273</v>
+        <v>0.39666499999999999</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2108,40 +2111,40 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="F23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H23">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I23">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J23">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K23">
-        <v>2.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L23">
-        <v>1600000000</v>
+        <v>174140000</v>
       </c>
       <c r="M23">
-        <v>200</v>
+        <v>345.30099999999999</v>
       </c>
       <c r="N23">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2153,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="S23">
         <v>181</v>
@@ -2168,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X23">
-        <v>0.37</v>
+        <v>0.2375273</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2179,43 +2182,43 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E24">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="H24">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="L24">
-        <v>625000000</v>
+        <v>1600000000</v>
       </c>
       <c r="M24">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="N24">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2245,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="X24">
-        <v>0.31000000000000011</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2256,40 +2259,40 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="D25">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G25">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="H25">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="I25">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>20.3</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>200</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>23300000</v>
+        <v>625000000</v>
       </c>
       <c r="M25">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="N25">
-        <v>800</v>
+        <v>9500</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2301,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="S25">
         <v>181</v>
@@ -2319,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="X25">
-        <v>7.9999899999999999E-2</v>
+        <v>0.31000000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2330,43 +2333,43 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>1.05</v>
       </c>
       <c r="H26">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="I26">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="J26">
-        <v>37</v>
+        <v>20.3</v>
       </c>
       <c r="K26">
-        <v>5.8</v>
+        <v>200</v>
       </c>
       <c r="L26">
-        <v>29000000</v>
+        <v>23300000</v>
       </c>
       <c r="M26">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N26">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2375,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>905</v>
+        <v>414</v>
       </c>
       <c r="S26">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2387,13 +2390,13 @@
         <v>10</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X26">
-        <v>0.37</v>
+        <v>7.9999899999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2404,13 +2407,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>35</v>
@@ -2419,25 +2422,25 @@
         <v>1.05</v>
       </c>
       <c r="H27">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J27">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L27">
-        <v>21100000</v>
+        <v>29000000</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
       <c r="N27">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2449,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="S27">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>10</v>
@@ -2467,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="X27">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2478,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2496,22 +2499,22 @@
         <v>72</v>
       </c>
       <c r="I28">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="L28">
-        <v>34000000</v>
+        <v>21100000</v>
       </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2523,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="S28">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U28">
         <v>10</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2549,43 +2552,43 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>19.2</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>1.05</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I29">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K29">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>38200000</v>
+        <v>34000000</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>800</v>
+        <v>675</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2597,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="S29">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2612,54 +2615,54 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X29">
-        <v>0.35999989999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="F30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>1.05</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30">
         <v>5.8</v>
       </c>
       <c r="L30">
-        <v>198600000</v>
+        <v>38200000</v>
       </c>
       <c r="M30">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N30">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2671,25 +2674,25 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1001</v>
+        <v>904</v>
       </c>
       <c r="S30">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>0.38</v>
+        <v>0.35999989999999998</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -2700,40 +2703,40 @@
         <v>20</v>
       </c>
       <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
         <v>20</v>
       </c>
-      <c r="D31">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
-      </c>
       <c r="F31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G31">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H31">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I31">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="J31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L31">
-        <v>46000000</v>
+        <v>198600000</v>
       </c>
       <c r="M31">
-        <v>270.71800000000002</v>
+        <v>110</v>
       </c>
       <c r="N31">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2745,99 +2748,99 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1601</v>
+        <v>1001</v>
       </c>
       <c r="S31">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
         <v>3</v>
       </c>
-      <c r="U31">
-        <v>20</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>2</v>
-      </c>
       <c r="X31">
-        <v>0.34934789999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="H32">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="J32">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="L32">
-        <v>32000000</v>
+        <v>46000000</v>
       </c>
       <c r="M32">
+        <v>270.71800000000002</v>
+      </c>
+      <c r="N32">
         <v>1200</v>
       </c>
-      <c r="N32">
-        <v>1675</v>
-      </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="S32">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32">
-        <v>0.45</v>
+        <v>0.34934789999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -2845,28 +2848,28 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
         <v>30</v>
       </c>
-      <c r="F33">
-        <v>31</v>
-      </c>
       <c r="G33">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="H33">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="I33">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="J33">
         <v>39</v>
@@ -2875,43 +2878,43 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>40000000</v>
+        <v>32000000</v>
       </c>
       <c r="M33">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N33">
-        <v>3650</v>
+        <v>1675</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>2404</v>
+        <v>1611</v>
       </c>
       <c r="S33">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X33">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -2919,64 +2922,64 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>46.9</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G34">
-        <v>1.298</v>
+        <v>1.39</v>
       </c>
       <c r="H34">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I34">
-        <v>451</v>
+        <v>300</v>
       </c>
       <c r="J34">
-        <v>33.299999999999997</v>
+        <v>39</v>
       </c>
       <c r="K34">
-        <v>0.72199999999999998</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>58900000</v>
+        <v>40000000</v>
       </c>
       <c r="M34">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="N34">
-        <v>4040</v>
+        <v>3650</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>2415</v>
+        <v>2404</v>
       </c>
       <c r="S34">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -2985,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="X34">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -2993,43 +2996,43 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>47.9</v>
+        <v>46.9</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G35">
-        <v>1.3480000000000001</v>
+        <v>1.298</v>
       </c>
       <c r="H35">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I35">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J35">
-        <v>35.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K35">
-        <v>0.56299999999999994</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="L35">
-        <v>40800000</v>
+        <v>58900000</v>
       </c>
       <c r="M35">
-        <v>780</v>
+        <v>660</v>
       </c>
       <c r="N35">
-        <v>4225</v>
+        <v>4040</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>2415</v>
@@ -3059,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="X35">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3067,43 +3070,43 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>47.4</v>
+        <v>47.9</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G36">
-        <v>1.3560000000000001</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="H36">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I36">
-        <v>2600</v>
+        <v>417</v>
       </c>
       <c r="J36">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="K36">
-        <v>0.53700000000000003</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="L36">
-        <v>20600000</v>
+        <v>40800000</v>
       </c>
       <c r="M36">
         <v>780</v>
       </c>
       <c r="N36">
-        <v>4195</v>
+        <v>4225</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3138,61 +3141,61 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>80</v>
+        <v>47.4</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D37">
-        <v>75.599999999999994</v>
+        <v>108</v>
       </c>
       <c r="E37">
-        <v>17.100000000000001</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="G37">
-        <v>1.32</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="H37">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="I37">
-        <v>33</v>
+        <v>2600</v>
       </c>
       <c r="J37">
-        <v>38</v>
+        <v>36.1</v>
       </c>
       <c r="K37">
-        <v>0.4</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="L37">
-        <v>29640000</v>
+        <v>20600000</v>
       </c>
       <c r="M37">
-        <v>466</v>
+        <v>780</v>
       </c>
       <c r="N37">
-        <v>7066</v>
+        <v>4195</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>2403</v>
+        <v>2415</v>
       </c>
       <c r="S37">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3207,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="X37">
-        <v>0.30700000000000011</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3218,70 +3221,70 @@
         <v>80</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>250</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="G38">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="H38">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J38">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="L38">
-        <v>52000000</v>
+        <v>29640000</v>
       </c>
       <c r="M38">
-        <v>250</v>
+        <v>466</v>
       </c>
       <c r="N38">
-        <v>3300</v>
+        <v>7066</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>1702</v>
+        <v>2403</v>
       </c>
       <c r="S38">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>10</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>2</v>
       </c>
       <c r="X38">
-        <v>0.37</v>
+        <v>0.30700000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3289,43 +3292,43 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>250</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39">
         <v>42</v>
       </c>
-      <c r="D39">
-        <v>410</v>
-      </c>
-      <c r="E39">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <v>43</v>
-      </c>
       <c r="G39">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="H39">
         <v>200</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J39">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K39">
         <v>1.4</v>
       </c>
       <c r="L39">
-        <v>254000000</v>
+        <v>52000000</v>
       </c>
       <c r="M39">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N39">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3352,84 +3355,84 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G40">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="H40">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>40.700000000000003</v>
+        <v>34</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>25000000</v>
+        <v>254000000</v>
       </c>
       <c r="M40">
-        <v>4000</v>
+        <v>260</v>
       </c>
       <c r="N40">
-        <v>2760</v>
+        <v>3500</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>107</v>
+        <v>1702</v>
       </c>
       <c r="S40">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U40">
         <v>10</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X40">
-        <v>0.110731</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -3440,43 +3443,43 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>35</v>
       </c>
       <c r="G41">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>38</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>79914600</v>
+        <v>25000000</v>
       </c>
       <c r="M41">
-        <v>420</v>
+        <v>4000</v>
       </c>
       <c r="N41">
-        <v>1776</v>
+        <v>2760</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3485,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S41">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3503,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="X41">
-        <v>0.2408826</v>
+        <v>0.110731</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3511,58 +3514,58 @@
         <v>1</v>
       </c>
       <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
         <v>80</v>
       </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
       <c r="E42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G42">
-        <v>1.1830000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="H42">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <v>38</v>
       </c>
       <c r="K42">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="L42">
-        <v>42344000</v>
+        <v>79914600</v>
       </c>
       <c r="M42">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N42">
-        <v>1694</v>
+        <v>1776</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="S42">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -3574,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42">
-        <v>0.28999999999999998</v>
+        <v>0.2408826</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3585,58 +3588,58 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>14.3</v>
+        <v>16</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43">
-        <v>1.33</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="H43">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>0.64800000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L43">
-        <v>24100000</v>
+        <v>42344000</v>
       </c>
       <c r="M43">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="N43">
-        <v>1767</v>
+        <v>1694</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="S43">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -3651,199 +3654,199 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>180</v>
+      </c>
+      <c r="E44">
+        <v>14.3</v>
+      </c>
+      <c r="F44">
         <v>40</v>
       </c>
-      <c r="C44">
+      <c r="G44">
+        <v>1.33</v>
+      </c>
+      <c r="H44">
         <v>125</v>
       </c>
-      <c r="D44">
-        <v>300</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>35</v>
-      </c>
-      <c r="G44">
-        <v>1.6</v>
-      </c>
-      <c r="H44">
-        <v>138</v>
-      </c>
       <c r="I44">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>0.4</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="L44">
-        <v>44000000</v>
+        <v>24100000</v>
       </c>
       <c r="M44">
-        <v>1600</v>
+        <v>570</v>
       </c>
       <c r="N44">
-        <v>3685</v>
+        <v>1767</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="S44">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="T44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>10</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G45">
-        <v>1.242</v>
+        <v>1.6</v>
       </c>
       <c r="H45">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I45">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>33.4</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="L45">
-        <v>35000000</v>
+        <v>44000000</v>
       </c>
       <c r="M45">
-        <v>460</v>
+        <v>1600</v>
       </c>
       <c r="N45">
-        <v>2789</v>
+        <v>3685</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="S45">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U45">
         <v>10</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>2</v>
       </c>
       <c r="X45">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1.242</v>
       </c>
       <c r="H46">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J46">
-        <v>44</v>
+        <v>33.4</v>
       </c>
       <c r="K46">
-        <v>0.36</v>
+        <v>1.4</v>
       </c>
       <c r="L46">
-        <v>53000000</v>
+        <v>35000000</v>
       </c>
       <c r="M46">
-        <v>1900</v>
+        <v>460</v>
       </c>
       <c r="N46">
-        <v>2500</v>
+        <v>2789</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3855,25 +3858,25 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S46">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="T46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>10</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X46">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3881,43 +3884,43 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F47">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G47">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I47">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K47">
-        <v>2.5</v>
+        <v>0.36</v>
       </c>
       <c r="L47">
-        <v>500000000</v>
+        <v>53000000</v>
       </c>
       <c r="M47">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="N47">
-        <v>1350</v>
+        <v>2500</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3929,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S47">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U47">
         <v>10</v>
@@ -3947,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="X47">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3958,40 +3961,40 @@
         <v>20</v>
       </c>
       <c r="C48">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D48">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F48">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G48">
-        <v>1.36</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H48">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="J48">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K48">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
-        <v>233000000</v>
+        <v>500000000</v>
       </c>
       <c r="M48">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="N48">
-        <v>1727</v>
+        <v>1350</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4000,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="S48">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T48">
         <v>3</v>
@@ -4021,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="X48">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4032,40 +4035,40 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D49">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G49">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H49">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J49">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="L49">
-        <v>233700000</v>
+        <v>233000000</v>
       </c>
       <c r="M49">
-        <v>559</v>
+        <v>760</v>
       </c>
       <c r="N49">
-        <v>1450</v>
+        <v>1727</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4074,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>37</v>
@@ -4095,51 +4098,51 @@
         <v>3</v>
       </c>
       <c r="X49">
-        <v>0.22600000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E50">
         <v>11</v>
       </c>
       <c r="F50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>1.3</v>
+      </c>
+      <c r="H50">
+        <v>98</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
         <v>37</v>
       </c>
-      <c r="G50">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="H50">
-        <v>138</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>46</v>
-      </c>
       <c r="K50">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="L50">
-        <v>227000000</v>
+        <v>233700000</v>
       </c>
       <c r="M50">
-        <v>1990</v>
+        <v>559</v>
       </c>
       <c r="N50">
-        <v>2715</v>
+        <v>1450</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4151,99 +4154,99 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="S50">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="T50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U50">
         <v>10</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50">
-        <v>0.4</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
         <v>40</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>14.6</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>1.637</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="H51">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J51">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="L51">
-        <v>78000000</v>
+        <v>227000000</v>
       </c>
       <c r="M51">
-        <v>300</v>
+        <v>1990</v>
       </c>
       <c r="N51">
-        <v>4246</v>
+        <v>2715</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S51">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U51">
         <v>10</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4251,43 +4254,43 @@
         <v>2</v>
       </c>
       <c r="B52">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>38</v>
+      </c>
+      <c r="D52">
+        <v>125</v>
+      </c>
+      <c r="E52">
+        <v>14.6</v>
+      </c>
+      <c r="F52">
         <v>20</v>
       </c>
-      <c r="C52">
-        <v>35</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <v>13</v>
-      </c>
-      <c r="F52">
-        <v>40</v>
-      </c>
       <c r="G52">
-        <v>1.2</v>
+        <v>1.637</v>
       </c>
       <c r="H52">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J52">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>4.9000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="L52">
-        <v>26400000</v>
+        <v>78000000</v>
       </c>
       <c r="M52">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N52">
-        <v>1520</v>
+        <v>4246</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4299,25 +4302,25 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>2411</v>
+        <v>32</v>
       </c>
       <c r="S52">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>10</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4325,43 +4328,43 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53">
+        <v>40</v>
+      </c>
+      <c r="G53">
+        <v>1.2</v>
+      </c>
+      <c r="H53">
+        <v>85</v>
+      </c>
+      <c r="I53">
+        <v>15</v>
+      </c>
+      <c r="J53">
         <v>30</v>
       </c>
-      <c r="G53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H53">
-        <v>80</v>
-      </c>
-      <c r="I53">
-        <v>18</v>
-      </c>
-      <c r="J53">
-        <v>26</v>
-      </c>
       <c r="K53">
-        <v>1.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L53">
-        <v>463000000</v>
+        <v>26400000</v>
       </c>
       <c r="M53">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N53">
-        <v>1615</v>
+        <v>1520</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4373,75 +4376,75 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>37</v>
+        <v>2411</v>
       </c>
       <c r="S53">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>10</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <v>3</v>
       </c>
       <c r="X53">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D54">
+        <v>260</v>
+      </c>
+      <c r="E54">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>26</v>
+      </c>
+      <c r="K54">
+        <v>1.9</v>
+      </c>
+      <c r="L54">
+        <v>463000000</v>
+      </c>
+      <c r="M54">
         <v>200</v>
       </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>27</v>
-      </c>
-      <c r="G54">
-        <v>1.07</v>
-      </c>
-      <c r="H54">
-        <v>110</v>
-      </c>
-      <c r="I54">
-        <v>6</v>
-      </c>
-      <c r="J54">
-        <v>29</v>
-      </c>
-      <c r="K54">
-        <v>2.7</v>
-      </c>
-      <c r="L54">
-        <v>775000000</v>
-      </c>
-      <c r="M54">
-        <v>160</v>
-      </c>
       <c r="N54">
-        <v>1800</v>
+        <v>1615</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4465,63 +4468,63 @@
         <v>3</v>
       </c>
       <c r="X54">
-        <v>0.215</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G55">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="H55">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I55">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="J55">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K55">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="L55">
-        <v>87200000</v>
+        <v>775000000</v>
       </c>
       <c r="M55">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="N55">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S55">
         <v>231</v>
@@ -4536,54 +4539,54 @@
         <v>2</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X55">
-        <v>0.22800000000000001</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>40</v>
       </c>
       <c r="C56">
-        <v>8.3000000000000007</v>
+        <v>100</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G56">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="H56">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="I56">
-        <v>210</v>
+        <v>0.5</v>
       </c>
       <c r="J56">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K56">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="L56">
-        <v>71640000</v>
+        <v>87200000</v>
       </c>
       <c r="M56">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="N56">
-        <v>3338</v>
+        <v>2200</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4592,146 +4595,146 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="S56">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U56">
         <v>10</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56">
         <v>2</v>
       </c>
       <c r="X56">
-        <v>0.1802926</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C57">
-        <v>55</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>14.1</v>
+        <v>30</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G57">
-        <v>1.3540000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H57">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="I57">
-        <v>4.5</v>
+        <v>210</v>
       </c>
       <c r="J57">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.5</v>
+        <v>0.18</v>
       </c>
       <c r="L57">
-        <v>53000000</v>
+        <v>71640000</v>
       </c>
       <c r="M57">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N57">
-        <v>1800</v>
+        <v>3338</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="S57">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>10</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X57">
-        <v>0.26700000000000002</v>
+        <v>0.1802926</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>14.1</v>
+      </c>
+      <c r="F58">
         <v>30</v>
       </c>
-      <c r="E58">
-        <v>32.5</v>
-      </c>
-      <c r="F58">
-        <v>33</v>
-      </c>
       <c r="G58">
-        <v>1.1000000000000001</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="H58">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I58">
-        <v>288</v>
+        <v>4.5</v>
       </c>
       <c r="J58">
-        <v>21.2</v>
+        <v>32</v>
       </c>
       <c r="K58">
-        <v>9.8000000000000007</v>
+        <v>1.5</v>
       </c>
       <c r="L58">
-        <v>95000000</v>
+        <v>53000000</v>
       </c>
       <c r="M58">
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="N58">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4743,143 +4746,143 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="S58">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U58">
         <v>10</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>3</v>
       </c>
       <c r="X58">
-        <v>0.22</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E59">
-        <v>7.8</v>
+        <v>32.5</v>
       </c>
       <c r="F59">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G59">
-        <v>1.387</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H59">
         <v>110</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="J59">
-        <v>34</v>
+        <v>21.2</v>
       </c>
       <c r="K59">
-        <v>1.1000000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L59">
-        <v>194900000</v>
+        <v>95000000</v>
       </c>
       <c r="M59">
-        <v>750</v>
+        <v>90</v>
       </c>
       <c r="N59">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="S59">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>10</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
         <v>3</v>
       </c>
-      <c r="U59">
-        <v>10</v>
-      </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
-      <c r="W59">
-        <v>2</v>
-      </c>
       <c r="X59">
-        <v>0.26300000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="E60">
-        <v>13.8</v>
+        <v>7.8</v>
       </c>
       <c r="F60">
-        <v>22.7</v>
+        <v>27</v>
       </c>
       <c r="G60">
-        <v>1.319</v>
+        <v>1.387</v>
       </c>
       <c r="H60">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I60">
-        <v>28.2</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>34</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L60">
-        <v>58000000</v>
+        <v>194900000</v>
       </c>
       <c r="M60">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N60">
-        <v>3040</v>
+        <v>2600</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4891,69 +4894,69 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="S60">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>10</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60">
-        <v>0.28999999999999998</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>11.1</v>
+        <v>13.8</v>
       </c>
       <c r="F61">
-        <v>19</v>
+        <v>22.7</v>
       </c>
       <c r="G61">
-        <v>1.24</v>
+        <v>1.319</v>
       </c>
       <c r="H61">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I61">
-        <v>13.2</v>
+        <v>28.2</v>
       </c>
       <c r="J61">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K61">
-        <v>0.53</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>520000000</v>
+        <v>58000000</v>
       </c>
       <c r="M61">
-        <v>470</v>
+        <v>600</v>
       </c>
       <c r="N61">
-        <v>2915</v>
+        <v>3040</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4965,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S61">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="T61">
         <v>1</v>
@@ -4983,51 +4986,51 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <v>0.46100000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>11.1</v>
       </c>
       <c r="F62">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G62">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="H62">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="I62">
-        <v>128</v>
+        <v>13.2</v>
       </c>
       <c r="J62">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="L62">
-        <v>25653000</v>
+        <v>520000000</v>
       </c>
       <c r="M62">
-        <v>680</v>
+        <v>470</v>
       </c>
       <c r="N62">
-        <v>2500</v>
+        <v>2915</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -5036,16 +5039,16 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="S62">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="T62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>10</v>
@@ -5054,10 +5057,10 @@
         <v>1</v>
       </c>
       <c r="W62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X62">
-        <v>0.48999989999999999</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -5065,43 +5068,43 @@
         <v>1</v>
       </c>
       <c r="B63">
+        <v>160</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
+      </c>
+      <c r="F63">
+        <v>31</v>
+      </c>
+      <c r="G63">
+        <v>1.41</v>
+      </c>
+      <c r="H63">
+        <v>170</v>
+      </c>
+      <c r="I63">
+        <v>128</v>
+      </c>
+      <c r="J63">
         <v>40</v>
       </c>
-      <c r="C63">
-        <v>28</v>
-      </c>
-      <c r="D63">
-        <v>55</v>
-      </c>
-      <c r="E63">
-        <v>23</v>
-      </c>
-      <c r="F63">
-        <v>33</v>
-      </c>
-      <c r="G63">
-        <v>1.33</v>
-      </c>
-      <c r="H63">
-        <v>160</v>
-      </c>
-      <c r="I63">
-        <v>313</v>
-      </c>
-      <c r="J63">
-        <v>39</v>
-      </c>
       <c r="K63">
-        <v>0.44400000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="L63">
-        <v>29000000</v>
+        <v>25653000</v>
       </c>
       <c r="M63">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="N63">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -5110,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>680</v>
       </c>
       <c r="R63">
         <v>10</v>
@@ -5131,51 +5134,51 @@
         <v>3</v>
       </c>
       <c r="X63">
-        <v>0.44000000000000011</v>
+        <v>0.48999989999999999</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
         <v>40</v>
       </c>
       <c r="C64">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E64">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="F64">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G64">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H64">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="J64">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="L64">
-        <v>91000000</v>
+        <v>29000000</v>
       </c>
       <c r="M64">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="N64">
-        <v>1650</v>
+        <v>2200</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -5187,99 +5190,99 @@
         <v>1</v>
       </c>
       <c r="R64">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="S64">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U64">
         <v>10</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>3</v>
       </c>
       <c r="X64">
-        <v>0.26</v>
+        <v>0.44000000000000011</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D65">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="F65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G65">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H65">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I65">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J65">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K65">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>88469000</v>
+        <v>91000000</v>
       </c>
       <c r="M65">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N65">
-        <v>950</v>
+        <v>1650</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>1510</v>
+        <v>37</v>
       </c>
       <c r="S65">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>10</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W65">
         <v>3</v>
       </c>
       <c r="X65">
-        <v>0.23517695</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -5287,43 +5290,43 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>48.2258</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>16.8</v>
+        <v>30</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G66">
         <v>1.2</v>
       </c>
       <c r="H66">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I66">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J66">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>0.94</v>
+        <v>4.2</v>
       </c>
       <c r="L66">
-        <v>28408000</v>
+        <v>88469000</v>
       </c>
       <c r="M66">
-        <v>499.73500000000001</v>
+        <v>500</v>
       </c>
       <c r="N66">
-        <v>939.45646931940769</v>
+        <v>950</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -5335,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>802</v>
+        <v>1510</v>
       </c>
       <c r="S66">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="T66">
         <v>1</v>
@@ -5350,131 +5353,131 @@
         <v>1</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X66">
-        <v>0.33</v>
+        <v>0.23517695</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
-        <v>2.4666700000000001</v>
+        <v>48.2258</v>
       </c>
       <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>16.8</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67">
         <v>40</v>
       </c>
-      <c r="D67">
-        <v>240</v>
-      </c>
-      <c r="E67">
-        <v>24</v>
-      </c>
-      <c r="F67">
-        <v>12</v>
-      </c>
       <c r="G67">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="H67">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I67">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J67">
-        <v>23.7</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>60</v>
+        <v>0.94</v>
       </c>
       <c r="L67">
-        <v>30700000</v>
+        <v>28408000</v>
       </c>
       <c r="M67">
-        <v>2000</v>
+        <v>499.73500000000001</v>
       </c>
       <c r="N67">
-        <v>856.60218041510814</v>
+        <v>939.45646931940769</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="S67">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X67">
-        <v>0.17032849999999999</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>80</v>
+        <v>2.4666700000000001</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D68">
+        <v>240</v>
+      </c>
+      <c r="E68">
+        <v>24</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>1.01</v>
+      </c>
+      <c r="H68">
+        <v>72</v>
+      </c>
+      <c r="I68">
         <v>30</v>
       </c>
-      <c r="E68">
-        <v>17</v>
-      </c>
-      <c r="F68">
-        <v>27</v>
-      </c>
-      <c r="G68">
-        <v>1.038</v>
-      </c>
-      <c r="H68">
-        <v>146</v>
-      </c>
-      <c r="I68">
-        <v>89</v>
-      </c>
       <c r="J68">
-        <v>26</v>
+        <v>23.7</v>
       </c>
       <c r="K68">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L68">
-        <v>24940000</v>
+        <v>30700000</v>
       </c>
       <c r="M68">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="N68">
-        <v>3219</v>
+        <v>856.60218041510814</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5483,25 +5486,25 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="S68">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X68">
-        <v>0.44747399999999998</v>
+        <v>0.17032849999999999</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -5509,46 +5512,46 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C69">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F69">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="G69">
-        <v>1.04</v>
+        <v>1.038</v>
       </c>
       <c r="H69">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="I69">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J69">
-        <v>23.6</v>
+        <v>26</v>
       </c>
       <c r="K69">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="L69">
-        <v>34000000</v>
+        <v>24940000</v>
       </c>
       <c r="M69">
-        <v>436.64800000000002</v>
+        <v>50</v>
       </c>
       <c r="N69">
-        <v>1507.7226478578821</v>
+        <v>3219</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5557,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="S69">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T69">
         <v>1</v>
@@ -5572,54 +5575,54 @@
         <v>1</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>0.28000000000000003</v>
+        <v>0.44747399999999998</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D70">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E70">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="F70">
-        <v>10.9</v>
+        <v>16.5</v>
       </c>
       <c r="G70">
-        <v>1.0351999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="H70">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I70">
-        <v>5.9</v>
+        <v>28</v>
       </c>
       <c r="J70">
-        <v>18.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="K70">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L70">
-        <v>107310000</v>
+        <v>34000000</v>
       </c>
       <c r="M70">
-        <v>33</v>
+        <v>436.64800000000002</v>
       </c>
       <c r="N70">
-        <v>1650</v>
+        <v>1507.7226478578821</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5631,16 +5634,16 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="S70">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -5649,81 +5652,81 @@
         <v>2</v>
       </c>
       <c r="X70">
-        <v>0.28291899999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="F71">
-        <v>29</v>
+        <v>10.9</v>
       </c>
       <c r="G71">
-        <v>1.1000000000000001</v>
+        <v>1.0351999999999999</v>
       </c>
       <c r="H71">
+        <v>120</v>
+      </c>
+      <c r="I71">
+        <v>5.9</v>
+      </c>
+      <c r="J71">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K71">
+        <v>77</v>
+      </c>
+      <c r="L71">
+        <v>107310000</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>1650</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>827</v>
+      </c>
+      <c r="S71">
         <v>232</v>
       </c>
-      <c r="I71">
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="J71">
-        <v>35</v>
-      </c>
-      <c r="K71">
-        <v>0.94</v>
-      </c>
-      <c r="L71">
-        <v>23500000</v>
-      </c>
-      <c r="M71">
-        <v>50</v>
-      </c>
-      <c r="N71">
-        <v>6600</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>838</v>
-      </c>
-      <c r="S71">
-        <v>112</v>
-      </c>
-      <c r="T71">
-        <v>1</v>
-      </c>
       <c r="U71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V71">
         <v>1</v>
       </c>
       <c r="W71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X71">
-        <v>0.39</v>
+        <v>0.28291899999999998</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -5731,46 +5734,46 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E72">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>33.5</v>
+        <v>29</v>
       </c>
       <c r="G72">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H72">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="I72">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K72">
-        <v>3.1</v>
+        <v>0.94</v>
       </c>
       <c r="L72">
-        <v>786000000</v>
+        <v>23500000</v>
       </c>
       <c r="M72">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N72">
-        <v>1100</v>
+        <v>6600</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5779,25 +5782,25 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="S72">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="U72">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="V72">
         <v>1</v>
       </c>
       <c r="W72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X72">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -5805,46 +5808,46 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D73">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>33.5</v>
       </c>
       <c r="G73">
-        <v>1.0309999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H73">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="I73">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="J73">
-        <v>24.6</v>
+        <v>37</v>
       </c>
       <c r="K73">
-        <v>12.35</v>
+        <v>3.1</v>
       </c>
       <c r="L73">
-        <v>101000000</v>
+        <v>786000000</v>
       </c>
       <c r="M73">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="N73">
-        <v>2230</v>
+        <v>1100</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5853,16 +5856,16 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="S73">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="U73">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -5871,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="X73">
-        <v>0.37195630000000002</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -5879,43 +5882,43 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D74">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="E74">
-        <v>19</v>
+        <v>14.1</v>
       </c>
       <c r="F74">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>1.37</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H74">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I74">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="J74">
-        <v>36</v>
+        <v>24.6</v>
       </c>
       <c r="K74">
-        <v>0.76</v>
+        <v>12.35</v>
       </c>
       <c r="L74">
-        <v>21400000</v>
+        <v>101000000</v>
       </c>
       <c r="M74">
-        <v>620</v>
+        <v>10</v>
       </c>
       <c r="N74">
-        <v>1903</v>
+        <v>2230</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -5924,19 +5927,19 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="S74">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="T74">
         <v>1</v>
       </c>
       <c r="U74">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="V74">
         <v>1</v>
@@ -5945,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="X74">
-        <v>0.14018720000000001</v>
+        <v>0.37195630000000002</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -5953,72 +5956,146 @@
         <v>1</v>
       </c>
       <c r="B75">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>35</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>36</v>
+      </c>
+      <c r="G75">
+        <v>1.37</v>
+      </c>
+      <c r="H75">
+        <v>150</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>36</v>
+      </c>
+      <c r="K75">
+        <v>0.76</v>
+      </c>
+      <c r="L75">
+        <v>21400000</v>
+      </c>
+      <c r="M75">
+        <v>620</v>
+      </c>
+      <c r="N75">
+        <v>1903</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>831</v>
+      </c>
+      <c r="S75">
+        <v>150</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>30</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>2</v>
+      </c>
+      <c r="X75">
+        <v>0.14018720000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
         <v>20</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>150</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>250</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>10.3</v>
       </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="G75">
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
         <v>1.1259999999999999</v>
       </c>
-      <c r="H75">
+      <c r="H76">
         <v>165</v>
       </c>
-      <c r="I75">
+      <c r="I76">
         <v>20</v>
       </c>
-      <c r="J75">
+      <c r="J76">
         <v>34</v>
       </c>
-      <c r="K75">
+      <c r="K76">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L75">
+      <c r="L76">
         <v>168000000</v>
       </c>
-      <c r="M75">
+      <c r="M76">
         <v>180</v>
       </c>
-      <c r="N75">
+      <c r="N76">
         <v>2940</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>825</v>
       </c>
-      <c r="S75">
+      <c r="S76">
         <v>110</v>
       </c>
-      <c r="T75">
-        <v>1</v>
-      </c>
-      <c r="U75">
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
         <v>31</v>
       </c>
-      <c r="V75">
-        <v>1</v>
-      </c>
-      <c r="W75">
-        <v>2</v>
-      </c>
-      <c r="X75">
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>2</v>
+      </c>
+      <c r="X76">
         <v>0.45</v>
       </c>
     </row>
